--- a/results/K-means++ Results Averages.xlsx
+++ b/results/K-means++ Results Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Thesis\Thesis Results\Updated\kmeans++\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0A2A3-6F51-4731-B2D8-65A182F735B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF2B81B-9B2A-4837-96DB-BBD03AF50994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{667457AC-97C6-4D9E-9F22-2A49421D9E5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{667457AC-97C6-4D9E-9F22-2A49421D9E5E}"/>
   </bookViews>
   <sheets>
     <sheet name="async" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -269,18 +269,6 @@
     <t>body-parser-1.18.0</t>
   </si>
   <si>
-    <t>passport-0.3.1</t>
-  </si>
-  <si>
-    <t>passport-0.3.2</t>
-  </si>
-  <si>
-    <t>passport-0.4.0</t>
-  </si>
-  <si>
-    <t>passport-0.4.1</t>
-  </si>
-  <si>
     <t>passport-0.5.0</t>
   </si>
   <si>
@@ -291,9 +279,6 @@
   </si>
   <si>
     <t>express-4.16.2</t>
-  </si>
-  <si>
-    <t>debug</t>
   </si>
 </sst>
 </file>
@@ -357,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -380,6 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8604,7 +8590,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -8659,7 +8645,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -8714,7 +8700,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -8769,7 +8755,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -11087,7 +11073,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD26"/>
+      <selection activeCell="B5" sqref="B5:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11102,61 +11088,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -11188,19 +11174,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4">
         <f>AVERAGE(E5:E5)</f>
         <v>73.375262054507346</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4">
         <f>AVERAGE(H5:H5)</f>
         <v>4.1092394078611525</v>
@@ -11244,19 +11230,19 @@
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4">
         <f>AVERAGE(E7:E7)</f>
         <v>76.603773584905653</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="4">
         <f>AVERAGE(H7:H7)</f>
         <v>6.2327718223583473</v>
@@ -11300,19 +11286,19 @@
     </row>
     <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4">
         <f>AVERAGE(E9:E9)</f>
         <v>76.436058700209657</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4">
         <f>AVERAGE(H9:H9)</f>
         <v>6.763654925982622</v>
@@ -11356,19 +11342,19 @@
     </row>
     <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4">
         <f>AVERAGE(E11:E11)</f>
         <v>78.238993710691815</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="4">
         <f>AVERAGE(H11:H11)</f>
         <v>6.2480857580397995</v>
@@ -11412,19 +11398,19 @@
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="4">
         <f>AVERAGE(E13:E13)</f>
         <v>76.519916142557648</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="4">
         <f>AVERAGE(H13:H13)</f>
         <v>6.4190913731495494</v>
@@ -11468,19 +11454,19 @@
     </row>
     <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4">
         <f>AVERAGE(E15:E15)</f>
         <v>78.930817610062903</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="4">
         <f>AVERAGE(H15:H15)</f>
         <v>7.8611536498213326</v>
@@ -11524,19 +11510,19 @@
     </row>
     <row r="18" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="4">
         <f>AVERAGE(E17:E17)</f>
         <v>76.904262753319358</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="4">
         <f>AVERAGE(H17:H17)</f>
         <v>10.68997787987068</v>
@@ -11580,19 +11566,19 @@
     </row>
     <row r="20" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="4">
         <f>AVERAGE(E19:E19)</f>
         <v>77.830188679245282</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="4">
         <f>AVERAGE(H19:H19)</f>
         <v>14.605666156202155</v>
@@ -11636,19 +11622,19 @@
     </row>
     <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="4">
         <f>AVERAGE(E21:E21)</f>
         <v>78.092243186582806</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="4">
         <f>AVERAGE(H21:H21)</f>
         <v>22.211587544665647</v>
@@ -11692,19 +11678,19 @@
     </row>
     <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4">
         <f>AVERAGE(E23:E23)</f>
         <v>78.448637316561843</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="4">
         <f>AVERAGE(H23:H23)</f>
         <v>32.348136804492086</v>
@@ -11720,12 +11706,12 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="4"/>
       <c r="J25" s="7"/>
       <c r="K25" s="2"/>
@@ -11746,12 +11732,12 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="23"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="4"/>
       <c r="J29" s="7"/>
       <c r="K29" s="2"/>
@@ -11801,10 +11787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BBAB46-8B61-4632-BF89-9553CC1F4507}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11818,64 +11804,64 @@
     <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -11903,7 +11889,7 @@
         <v>2.269456769396808</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -11931,7 +11917,7 @@
         <v>1.175200863412867</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>43</v>
       </c>
@@ -11959,21 +11945,21 @@
         <v>1.125441051222773</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4">
         <f>AVERAGE(E5:E7)</f>
         <v>63.372684411775623</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="4">
         <f>AVERAGE(H5:H7)</f>
         <v>1.523366228010816</v>
@@ -11986,8 +11972,16 @@
         <f>AVERAGE(F5:F7)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="9">
+        <f>AVERAGE(D5:D7)</f>
+        <v>76.833333333333329</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(G5:G7)</f>
+        <v>81.724166666666676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
@@ -12015,7 +12009,7 @@
         <v>9.2145341168005892</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
@@ -12043,7 +12037,7 @@
         <v>6.1542151337090836</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>43</v>
       </c>
@@ -12071,21 +12065,21 @@
         <v>5.3919779372997416</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4">
         <f>AVERAGE(E9:E11)</f>
         <v>65.077427577928745</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="4">
         <f>AVERAGE(H9:H11)</f>
         <v>6.9202423959364721</v>
@@ -12098,8 +12092,16 @@
         <f>AVERAGE(F9:F11)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="9">
+        <f>AVERAGE(D9:D11)</f>
+        <v>73.288888888888891</v>
+      </c>
+      <c r="N12" s="2">
+        <f>AVERAGE(G9:G11)</f>
+        <v>77.24077777777778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
@@ -12127,7 +12129,7 @@
         <v>5.0125914378222713</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
@@ -12155,7 +12157,7 @@
         <v>8.9147379781748555</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
@@ -12183,21 +12185,21 @@
         <v>12.548160765705479</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4">
         <f>AVERAGE(E13:E15)</f>
         <v>66.383178032693579</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="4">
         <f>AVERAGE(H13:H15)</f>
         <v>8.8251633939008673</v>
@@ -12210,8 +12212,16 @@
         <f>AVERAGE(F13:F15)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="9">
+        <f>AVERAGE(D13:D15)</f>
+        <v>70.505555555555546</v>
+      </c>
+      <c r="N16" s="2">
+        <f>AVERAGE(G13:G15)</f>
+        <v>75.680888888888887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
@@ -12239,7 +12249,7 @@
         <v>9.791341887516479</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
@@ -12267,7 +12277,7 @@
         <v>14.634848303153863</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
@@ -12295,21 +12305,21 @@
         <v>12.21154236119558</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="4">
         <f>AVERAGE(E17:E19)</f>
         <v>67.902216282436783</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="4">
         <f>AVERAGE(H17:H19)</f>
         <v>12.212577517288642</v>
@@ -12322,8 +12332,16 @@
         <f>AVERAGE(F17:F19)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="9">
+        <f>AVERAGE(D17:D19)</f>
+        <v>67.36666666666666</v>
+      </c>
+      <c r="N20" s="2">
+        <f>AVERAGE(G17:G19)</f>
+        <v>72.854777777777784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
@@ -12351,7 +12369,7 @@
         <v>12.840268617340204</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
@@ -12379,7 +12397,7 @@
         <v>8.4692409161770001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>43</v>
       </c>
@@ -12407,21 +12425,21 @@
         <v>9.1454759297562553</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4">
         <f>AVERAGE(E21:E23)</f>
         <v>66.298276224771385</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="4">
         <f>AVERAGE(H21:H23)</f>
         <v>10.151661821091153</v>
@@ -12434,8 +12452,16 @@
         <f>AVERAGE(F21:F23)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="9">
+        <f>AVERAGE(D21:D23)</f>
+        <v>70.722222222222229</v>
+      </c>
+      <c r="N24" s="2">
+        <f>AVERAGE(G21:G23)</f>
+        <v>74.561111111111117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -12463,7 +12489,7 @@
         <v>21.003717472118961</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>24</v>
       </c>
@@ -12491,7 +12517,7 @@
         <v>8.2663788623735837</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>43</v>
       </c>
@@ -12519,21 +12545,21 @@
         <v>16.579470332968341</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4">
         <f>AVERAGE(E25:E27)</f>
         <v>67.374119859920071</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="4">
         <f>AVERAGE(H25:H27)</f>
         <v>15.283188889153628</v>
@@ -12546,8 +12572,16 @@
         <f>AVERAGE(F25:F27)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="9">
+        <f>AVERAGE(D25:D27)</f>
+        <v>68.3888888888889</v>
+      </c>
+      <c r="N28" s="2">
+        <f>AVERAGE(G25:G27)</f>
+        <v>70.311666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>23</v>
       </c>
@@ -12575,7 +12609,7 @@
         <v>18.971099652236486</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>24</v>
       </c>
@@ -12603,7 +12637,7 @@
         <v>22.730543230603185</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>43</v>
       </c>
@@ -12631,21 +12665,21 @@
         <v>14.922739992699844</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="4">
         <f>AVERAGE(E29:E31)</f>
         <v>68.228087760329657</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="4">
         <f>AVERAGE(H29:H31)</f>
         <v>18.874794291846506</v>
@@ -12658,8 +12692,16 @@
         <f>AVERAGE(F29:F31)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="9">
+        <f>AVERAGE(D29:D31)</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="N32" s="2">
+        <f>AVERAGE(G29:G31)</f>
+        <v>67.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>23</v>
       </c>
@@ -12687,7 +12729,7 @@
         <v>27.170524043650325</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>24</v>
       </c>
@@ -12715,7 +12757,7 @@
         <v>15.174481352680171</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>43</v>
       </c>
@@ -12743,21 +12785,21 @@
         <v>26.990307012207481</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="4">
         <f>AVERAGE(E33:E35)</f>
         <v>72.761579487941006</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="4">
         <f>AVERAGE(H33:H35)</f>
         <v>23.111770802845992</v>
@@ -12770,8 +12812,16 @@
         <f>AVERAGE(F33:F35)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="9">
+        <f>AVERAGE(D33:D35)</f>
+        <v>57.088888888888881</v>
+      </c>
+      <c r="N36" s="2">
+        <f>AVERAGE(G33:G35)</f>
+        <v>63.825055555555558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>23</v>
       </c>
@@ -12799,7 +12849,7 @@
         <v>44.052901170061503</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>24</v>
       </c>
@@ -12827,7 +12877,7 @@
         <v>45.497061997841463</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>43</v>
       </c>
@@ -12855,21 +12905,21 @@
         <v>44.640467210122885</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="4">
         <f>AVERAGE(E37:E39)</f>
         <v>84.536640756709815</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="4">
         <f>AVERAGE(H37:H39)</f>
         <v>44.730143459341953</v>
@@ -12882,8 +12932,16 @@
         <f>AVERAGE(F37:F39)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="9">
+        <f>AVERAGE(D37:D39)</f>
+        <v>32.43386243386243</v>
+      </c>
+      <c r="N40" s="2">
+        <f>AVERAGE(G37:G39)</f>
+        <v>45.868095238095236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>23</v>
       </c>
@@ -12911,7 +12969,7 @@
         <v>32.653795419115006</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>24</v>
       </c>
@@ -12939,7 +12997,7 @@
         <v>26.15421513370908</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>43</v>
       </c>
@@ -12967,21 +13025,21 @@
         <v>44.70130186154033</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="4">
         <f>AVERAGE(E41:E43)</f>
         <v>79.65103760626647</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="4">
         <f>AVERAGE(H41:H43)</f>
         <v>34.503104138121472</v>
@@ -12994,35 +13052,43 @@
         <f>AVERAGE(F41:F43)</f>
         <v>82.99</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M44" s="9">
+        <f>AVERAGE(D41:D43)</f>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="N44" s="2">
+        <f>AVERAGE(G41:G43)</f>
+        <v>54.396666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E45" s="2"/>
       <c r="F45" s="5"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="F46" s="5"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E47" s="2"/>
       <c r="F47" s="5"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E48" s="2"/>
       <c r="F48" s="5"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="23"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="4"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -13048,12 +13114,12 @@
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="23"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="4"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -13106,7 +13172,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13121,61 +13187,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -13451,19 +13517,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="4">
         <f>AVERAGE(E9:E11)</f>
         <v>74.302051282051295</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="4">
         <f>AVERAGE(H9:H11)</f>
         <v>26.302769132551276</v>
@@ -13513,61 +13579,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -13795,19 +13861,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="4">
         <f>AVERAGE(E5:E12)</f>
         <v>42.857142857142847</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="4">
         <f>AVERAGE(H5:H12)</f>
         <v>2.0095037323554092</v>
@@ -13836,10 +13902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B301EC9E-E739-4148-9966-47540D652621}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:H43"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13853,66 +13919,66 @@
     <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="16">
         <v>859</v>
@@ -13938,9 +14004,9 @@
         <v>2.7833862128641575</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="16">
         <v>859</v>
@@ -13966,9 +14032,9 @@
         <v>3.2819922268605168</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" s="16">
         <v>860</v>
@@ -13994,21 +14060,21 @@
         <v>2.3424759080800568</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4">
         <f>AVERAGE(E5:E7)</f>
         <v>67.748204149407556</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="4">
         <f>AVERAGE(H5:H7)</f>
         <v>2.8026181159349104</v>
@@ -14021,10 +14087,18 @@
         <f>AVERAGE(F5:F7)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="9">
+        <f>AVERAGE(D5:D7)</f>
+        <v>277.15000000000003</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(G5:G7)</f>
+        <v>66.823333333333338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="16">
         <v>859</v>
@@ -14050,9 +14124,9 @@
         <v>4.4995673492933435</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="16">
         <v>859</v>
@@ -14078,9 +14152,9 @@
         <v>6.7631111750875741</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B11" s="16">
         <v>860</v>
@@ -14106,21 +14180,21 @@
         <v>6.2060785767234883</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4">
         <f>AVERAGE(E9:E11)</f>
         <v>68.346181034975473</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="4">
         <f>AVERAGE(H9:H11)</f>
         <v>5.822919033701468</v>
@@ -14133,10 +14207,18 @@
         <f>AVERAGE(F9:F11)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="9">
+        <f>AVERAGE(D9:D11)</f>
+        <v>272.01111111111112</v>
+      </c>
+      <c r="N12" s="2">
+        <f>AVERAGE(G9:G11)</f>
+        <v>64.751888888888899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" s="16">
         <v>859</v>
@@ -14162,9 +14244,9 @@
         <v>11.20324968753005</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="16">
         <v>859</v>
@@ -14190,9 +14272,9 @@
         <v>8.1905858644019069</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" s="16">
         <v>860</v>
@@ -14218,21 +14300,21 @@
         <v>7.8280207561156434</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4">
         <f>AVERAGE(E13:E15)</f>
         <v>69.535780142163986</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="4">
         <f>AVERAGE(H13:H15)</f>
         <v>9.0739521026825329</v>
@@ -14245,10 +14327,18 @@
         <f>AVERAGE(F13:F15)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="9">
+        <f>AVERAGE(D13:D15)</f>
+        <v>261.78888888888883</v>
+      </c>
+      <c r="N16" s="2">
+        <f>AVERAGE(G13:G15)</f>
+        <v>62.507222222222218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="17">
         <v>859</v>
@@ -14274,9 +14364,9 @@
         <v>12.862087436647579</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="17">
         <v>859</v>
@@ -14302,9 +14392,9 @@
         <v>14.433088623386588</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="17">
         <v>860</v>
@@ -14330,21 +14420,21 @@
         <v>12.48543894948639</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="4">
         <f>AVERAGE(E17:E19)</f>
         <v>70.685936285335274</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="4">
         <f>AVERAGE(H17:H19)</f>
         <v>13.260205003173519</v>
@@ -14357,10 +14447,18 @@
         <f>AVERAGE(F17:F19)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="9">
+        <f>AVERAGE(D17:D19)</f>
+        <v>251.9047619047619</v>
+      </c>
+      <c r="N20" s="2">
+        <f>AVERAGE(G17:G19)</f>
+        <v>59.631111111111117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21" s="16">
         <v>859</v>
@@ -14386,9 +14484,9 @@
         <v>15.931160465339881</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" s="16">
         <v>859</v>
@@ -14414,9 +14512,9 @@
         <v>14.761767669497628</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="16">
         <v>860</v>
@@ -14442,21 +14540,21 @@
         <v>16.071163825055589</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4">
         <f>AVERAGE(E21:E23)</f>
         <v>71.289957031083816</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="4">
         <f>AVERAGE(H21:H23)</f>
         <v>15.588030653297698</v>
@@ -14469,10 +14567,18 @@
         <f>AVERAGE(F21:F23)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="9">
+        <f>AVERAGE(D21:D23)</f>
+        <v>246.71428571428569</v>
+      </c>
+      <c r="N24" s="2">
+        <f>AVERAGE(G21:G23)</f>
+        <v>58.039444444444449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" s="16">
         <v>859</v>
@@ -14498,9 +14604,9 @@
         <v>20.954715892702623</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" s="16">
         <v>859</v>
@@ -14526,9 +14632,9 @@
         <v>18.909841178446314</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" s="16">
         <v>860</v>
@@ -14554,21 +14660,21 @@
         <v>19.599703484062267</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4">
         <f>AVERAGE(E25:E27)</f>
         <v>72.234525453249233</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="4">
         <f>AVERAGE(H25:H27)</f>
         <v>19.821420185070401</v>
@@ -14581,10 +14687,18 @@
         <f>AVERAGE(F25:F27)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="9">
+        <f>AVERAGE(D25:D27)</f>
+        <v>238.6</v>
+      </c>
+      <c r="N28" s="2">
+        <f>AVERAGE(G25:G27)</f>
+        <v>55.124444444444443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" s="16">
         <v>859</v>
@@ -14610,9 +14724,9 @@
         <v>19.671185462936265</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="16">
         <v>859</v>
@@ -14638,9 +14752,9 @@
         <v>21.356940645842329</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B31" s="16">
         <v>860</v>
@@ -14666,21 +14780,21 @@
         <v>21.986656782802083</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="4">
         <f>AVERAGE(E29:E31)</f>
         <v>72.753427006344126</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="4">
         <f>AVERAGE(H29:H31)</f>
         <v>21.004927630526893</v>
@@ -14693,10 +14807,18 @@
         <f>AVERAGE(F29:F31)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="9">
+        <f>AVERAGE(D29:D31)</f>
+        <v>234.13888888888891</v>
+      </c>
+      <c r="N32" s="2">
+        <f>AVERAGE(G29:G31)</f>
+        <v>54.317777777777771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" s="16">
         <v>859</v>
@@ -14722,9 +14844,9 @@
         <v>19.697625228343433</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" s="16">
         <v>859</v>
@@ -14750,9 +14872,9 @@
         <v>24.591910177054839</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B35" s="16">
         <v>860</v>
@@ -14778,21 +14900,21 @@
         <v>28.531187122736419</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="4">
         <f>AVERAGE(E33:E35)</f>
         <v>73.824078836938568</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="4">
         <f>AVERAGE(H33:H35)</f>
         <v>24.2735741760449</v>
@@ -14805,10 +14927,18 @@
         <f>AVERAGE(F33:F35)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="9">
+        <f>AVERAGE(D33:D35)</f>
+        <v>224.93333333333331</v>
+      </c>
+      <c r="N36" s="2">
+        <f>AVERAGE(G33:G35)</f>
+        <v>52.091126984126987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B37" s="16">
         <v>859</v>
@@ -14834,9 +14964,9 @@
         <v>33.880155754254403</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="16">
         <v>859</v>
@@ -14862,9 +14992,9 @@
         <v>31.510004318410829</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" s="16">
         <v>860</v>
@@ -14890,21 +15020,21 @@
         <v>34.494687422782313</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="4">
         <f>AVERAGE(E37:E39)</f>
         <v>76.430009956893571</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="4">
         <f>AVERAGE(H37:H39)</f>
         <v>33.294949165149177</v>
@@ -14917,10 +15047,18 @@
         <f>AVERAGE(F37:F39)</f>
         <v>68.75333333333333</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="9">
+        <f>AVERAGE(D37:D39)</f>
+        <v>202.54444444444445</v>
+      </c>
+      <c r="N40" s="2">
+        <f>AVERAGE(G37:G39)</f>
+        <v>45.870277777777773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" s="17">
         <v>859</v>
@@ -14946,9 +15084,9 @@
         <v>37.2252668012691</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" s="17">
         <v>859</v>
@@ -14974,9 +15112,9 @@
         <v>38.684735445927323</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" s="17">
         <v>860</v>
@@ -15002,21 +15140,21 @@
         <v>41.169119983056241</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="4">
         <f>AVERAGE(E41:E43)</f>
         <v>77.269108146818851</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="4">
         <f>AVERAGE(H41:H43)</f>
         <v>39.026374076750891</v>
@@ -15028,6 +15166,14 @@
       <c r="K44" s="17">
         <f>AVERAGE(F41:F43)</f>
         <v>68.75333333333333</v>
+      </c>
+      <c r="M44" s="9">
+        <f>AVERAGE(D41:D43)</f>
+        <v>195.33333333333334</v>
+      </c>
+      <c r="N44" s="2">
+        <f>AVERAGE(G41:G43)</f>
+        <v>41.935047619047623</v>
       </c>
     </row>
   </sheetData>
@@ -15071,10 +15217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1BA10E-0277-4F61-95AC-289125E6ED69}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63:H67"/>
+      <selection activeCell="M52" sqref="M52:N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15088,64 +15234,64 @@
     <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -15171,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -15197,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -15223,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -15249,9 +15395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5">
         <v>484</v>
@@ -15275,21 +15421,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="4">
         <f>AVERAGE(E5:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4">
         <f>AVERAGE(H5:H9)</f>
         <v>0</v>
@@ -15302,8 +15448,16 @@
         <f>AVERAGE(F5:F9)</f>
         <v>82.61</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="23">
+        <f>AVERAGE(D5:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
+        <f>AVERAGE(G5:G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
@@ -15332,7 +15486,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
@@ -15361,7 +15515,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
@@ -15390,7 +15544,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -15419,9 +15573,9 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="13">
         <v>484</v>
@@ -15448,21 +15602,21 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4">
         <f>AVERAGE(E11:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="4">
         <f>AVERAGE(H11:H15)</f>
         <v>0</v>
@@ -15476,8 +15630,16 @@
         <f>AVERAGE(F11:F15)</f>
         <v>82.61</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="23">
+        <f>AVERAGE(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="23">
+        <f>AVERAGE(G11:G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
@@ -15503,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
@@ -15529,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>20</v>
       </c>
@@ -15555,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -15581,9 +15743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" s="13">
         <v>484</v>
@@ -15607,21 +15769,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="4">
         <f>AVERAGE(E17:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="4">
         <f>AVERAGE(H17:H21)</f>
         <v>0</v>
@@ -15634,8 +15796,16 @@
         <f>AVERAGE(F17:F21)</f>
         <v>82.61</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="23">
+        <f>AVERAGE(D17:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="23">
+        <f>AVERAGE(G17:G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
@@ -15661,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>19</v>
       </c>
@@ -15687,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>20</v>
       </c>
@@ -15713,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>21</v>
       </c>
@@ -15739,9 +15909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" s="13">
         <v>484</v>
@@ -15765,21 +15935,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4">
         <f>AVERAGE(E23:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="4">
         <f>AVERAGE(H23:H27)</f>
         <v>0</v>
@@ -15792,8 +15962,16 @@
         <f>AVERAGE(F23:F27)</f>
         <v>82.61</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="23">
+        <f>AVERAGE(D23:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="23">
+        <f>AVERAGE(G23:G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
@@ -15819,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>19</v>
       </c>
@@ -15845,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>20</v>
       </c>
@@ -15871,7 +16049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>21</v>
       </c>
@@ -15897,9 +16075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B33" s="13">
         <v>484</v>
@@ -15923,21 +16101,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="4">
         <f>AVERAGE(E29:E33)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="4">
         <f>AVERAGE(H29:H33)</f>
         <v>0</v>
@@ -15950,8 +16128,16 @@
         <f>AVERAGE(F29:F33)</f>
         <v>82.61</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="23">
+        <f>AVERAGE(D29:D33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="23">
+        <f>AVERAGE(G29:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>18</v>
       </c>
@@ -15977,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>19</v>
       </c>
@@ -16003,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>20</v>
       </c>
@@ -16029,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>21</v>
       </c>
@@ -16055,9 +16241,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" s="13">
         <v>484</v>
@@ -16081,21 +16267,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="4">
         <f>AVERAGE(E35:E39)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="4">
         <f>AVERAGE(H35:H39)</f>
         <v>0</v>
@@ -16108,8 +16294,16 @@
         <f>AVERAGE(F35:F39)</f>
         <v>82.61</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="23">
+        <f>AVERAGE(D35:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="23">
+        <f>AVERAGE(G35:G39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>18</v>
       </c>
@@ -16135,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>19</v>
       </c>
@@ -16161,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>20</v>
       </c>
@@ -16187,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>21</v>
       </c>
@@ -16213,12 +16407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="13">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C45" s="13">
         <v>35</v>
@@ -16230,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="13">
-        <v>81.33</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
@@ -16239,646 +16433,601 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13">
-        <v>491</v>
-      </c>
-      <c r="C46" s="13">
-        <v>35</v>
-      </c>
-      <c r="D46" s="13">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
-        <v>81.99</v>
-      </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="4">
+        <f>AVERAGE(E41:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="4">
+        <f>AVERAGE(H41:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <f>AVERAGE(B41:B45)</f>
+        <v>489.6</v>
+      </c>
+      <c r="K46" s="13">
+        <f>AVERAGE(F41:F45)</f>
+        <v>82.61</v>
+      </c>
+      <c r="M46" s="23">
+        <f>AVERAGE(D41:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="23">
+        <f>AVERAGE(G41:G45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B47" s="13">
         <v>491</v>
       </c>
       <c r="C47" s="13">
-        <v>35</v>
-      </c>
-      <c r="D47" s="13">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D47" s="16">
+        <v>67</v>
       </c>
       <c r="E47" s="2">
-        <v>0</v>
+        <f>((B47-D47)/B47)*100</f>
+        <v>86.354378818737274</v>
       </c>
       <c r="F47" s="13">
-        <v>79.17</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
+        <v>82.87</v>
+      </c>
+      <c r="G47" s="2">
+        <v>50.338000000000001</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>((F47-G47)/F47)*100</f>
+        <v>39.256667068903106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B48" s="13">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C48" s="13">
-        <v>35</v>
-      </c>
-      <c r="D48" s="13">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D48" s="16">
+        <v>67</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <f>((B48-D48)/B48)*100</f>
+        <v>86.354378818737274</v>
       </c>
       <c r="F48" s="13">
-        <v>79.510000000000005</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
+        <v>83.23</v>
+      </c>
+      <c r="G48" s="2">
+        <v>50.626999999999995</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>((F48-G48)/F48)*100</f>
+        <v>39.172173495133976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B49" s="13">
+        <v>491</v>
+      </c>
+      <c r="C49" s="13">
+        <v>40</v>
+      </c>
+      <c r="D49" s="16">
+        <v>67</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ref="E49:E51" si="0">((B49-D49)/B49)*100</f>
+        <v>86.354378818737274</v>
+      </c>
+      <c r="F49" s="13">
+        <v>83.23</v>
+      </c>
+      <c r="G49" s="2">
+        <v>50.596999999999994</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" ref="H49:H51" si="1">((F49-G49)/F49)*100</f>
+        <v>39.208218190556302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="13">
+        <v>491</v>
+      </c>
+      <c r="C50" s="13">
+        <v>40</v>
+      </c>
+      <c r="D50" s="16">
+        <v>68</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>86.150712830957232</v>
+      </c>
+      <c r="F50" s="13">
+        <v>82.96</v>
+      </c>
+      <c r="G50" s="2">
+        <v>50.029999999999994</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>39.693828351012542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="13">
         <v>484</v>
-      </c>
-      <c r="C49" s="13">
-        <v>35</v>
-      </c>
-      <c r="D49" s="13">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
-        <v>80.760000000000005</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="4">
-        <f>AVERAGE(E41:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="4">
-        <f>AVERAGE(H41:H49)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="13">
-        <f>AVERAGE(B41:B49)</f>
-        <v>490.55555555555554</v>
-      </c>
-      <c r="K50" s="13">
-        <f>AVERAGE(F41:F49)</f>
-        <v>81.672222222222217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="13">
-        <v>491</v>
       </c>
       <c r="C51" s="13">
         <v>40</v>
       </c>
       <c r="D51" s="16">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2">
-        <f>((B51-D51)/B51)*100</f>
-        <v>86.354378818737274</v>
+        <f t="shared" si="0"/>
+        <v>84.710743801652882</v>
       </c>
       <c r="F51" s="13">
-        <v>82.87</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="G51" s="2">
-        <v>50.338000000000001</v>
+        <v>48.66</v>
       </c>
       <c r="H51" s="2">
-        <f>((F51-G51)/F51)*100</f>
-        <v>39.256667068903106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="13">
-        <v>491</v>
-      </c>
-      <c r="C52" s="13">
-        <v>40</v>
-      </c>
-      <c r="D52" s="16">
-        <v>67</v>
-      </c>
-      <c r="E52" s="2">
-        <f>((B52-D52)/B52)*100</f>
-        <v>86.354378818737274</v>
-      </c>
-      <c r="F52" s="13">
-        <v>83.23</v>
-      </c>
-      <c r="G52" s="2">
-        <v>50.626999999999995</v>
-      </c>
-      <c r="H52" s="2">
-        <f>((F52-G52)/F52)*100</f>
-        <v>39.172173495133976</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>39.747399702823188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="4">
+        <f>AVERAGE(E47:E51)</f>
+        <v>85.984918617764393</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="4">
+        <f>AVERAGE(H47:H51)</f>
+        <v>39.415657361685817</v>
+      </c>
+      <c r="J52" s="13">
+        <f>AVERAGE(B47:B51)</f>
+        <v>489.6</v>
+      </c>
+      <c r="K52" s="13">
+        <f>AVERAGE(F47:F51)</f>
+        <v>82.61</v>
+      </c>
+      <c r="M52" s="23">
+        <f>AVERAGE(D47:D51)</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="N52" s="23">
+        <f>AVERAGE(G47:G51)</f>
+        <v>50.050400000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="13">
         <v>491</v>
       </c>
       <c r="C53" s="13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D53" s="16">
         <v>67</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" ref="E53:E55" si="0">((B53-D53)/B53)*100</f>
+        <f>((B53-D53)/B53)*100</f>
         <v>86.354378818737274</v>
       </c>
       <c r="F53" s="13">
-        <v>83.23</v>
+        <v>82.87</v>
       </c>
       <c r="G53" s="2">
-        <v>50.596999999999994</v>
+        <v>50.279000000000011</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" ref="H53:H55" si="1">((F53-G53)/F53)*100</f>
-        <v>39.208218190556302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>((F53-G53)/F53)*100</f>
+        <v>39.327862917823083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="13">
         <v>491</v>
       </c>
       <c r="C54" s="13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D54" s="16">
+        <v>67</v>
+      </c>
+      <c r="E54" s="2">
+        <f>((B54-D54)/B54)*100</f>
+        <v>86.354378818737274</v>
+      </c>
+      <c r="F54" s="13">
+        <v>83.23</v>
+      </c>
+      <c r="G54" s="2">
+        <v>50.509</v>
+      </c>
+      <c r="H54" s="2">
+        <f>((F54-G54)/F54)*100</f>
+        <v>39.313949297128445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="13">
+        <v>491</v>
+      </c>
+      <c r="C55" s="13">
+        <v>45</v>
+      </c>
+      <c r="D55" s="16">
+        <v>67</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" ref="E55:E57" si="2">((B55-D55)/B55)*100</f>
+        <v>86.354378818737274</v>
+      </c>
+      <c r="F55" s="13">
+        <v>83.23</v>
+      </c>
+      <c r="G55" s="2">
+        <v>50.449999999999996</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" ref="H55:H57" si="3">((F55-G55)/F55)*100</f>
+        <v>39.38483719812568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="13">
+        <v>491</v>
+      </c>
+      <c r="C56" s="13">
+        <v>45</v>
+      </c>
+      <c r="D56" s="16">
         <v>68</v>
       </c>
-      <c r="E54" s="2">
-        <f t="shared" si="0"/>
+      <c r="E56" s="2">
+        <f t="shared" si="2"/>
         <v>86.150712830957232</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F56" s="13">
         <v>82.96</v>
       </c>
-      <c r="G54" s="2">
-        <v>50.029999999999994</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="1"/>
-        <v>39.693828351012542</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="13">
+      <c r="G56" s="2">
+        <v>49.480000000000004</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="3"/>
+        <v>40.356798457087741</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="13">
         <v>484</v>
-      </c>
-      <c r="C55" s="13">
-        <v>40</v>
-      </c>
-      <c r="D55" s="16">
-        <v>74</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="0"/>
-        <v>84.710743801652882</v>
-      </c>
-      <c r="F55" s="13">
-        <v>80.760000000000005</v>
-      </c>
-      <c r="G55" s="2">
-        <v>48.66</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="1"/>
-        <v>39.747399702823188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="4">
-        <f>AVERAGE(E51:E55)</f>
-        <v>85.984918617764393</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="4">
-        <f>AVERAGE(H51:H55)</f>
-        <v>39.415657361685817</v>
-      </c>
-      <c r="J56" s="13">
-        <f>AVERAGE(B51:B55)</f>
-        <v>489.6</v>
-      </c>
-      <c r="K56" s="13">
-        <f>AVERAGE(F51:F55)</f>
-        <v>82.61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="13">
-        <v>491</v>
       </c>
       <c r="C57" s="13">
         <v>45</v>
       </c>
       <c r="D57" s="16">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2">
-        <f>((B57-D57)/B57)*100</f>
-        <v>86.354378818737274</v>
+        <f t="shared" si="2"/>
+        <v>84.710743801652882</v>
       </c>
       <c r="F57" s="13">
-        <v>82.87</v>
+        <v>80.760000000000005</v>
       </c>
       <c r="G57" s="2">
-        <v>50.279000000000011</v>
+        <v>48.261000000000003</v>
       </c>
       <c r="H57" s="2">
-        <f>((F57-G57)/F57)*100</f>
-        <v>39.327862917823083</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="13">
-        <v>491</v>
-      </c>
-      <c r="C58" s="13">
-        <v>45</v>
-      </c>
-      <c r="D58" s="16">
-        <v>67</v>
-      </c>
-      <c r="E58" s="2">
-        <f>((B58-D58)/B58)*100</f>
-        <v>86.354378818737274</v>
-      </c>
-      <c r="F58" s="13">
-        <v>83.23</v>
-      </c>
-      <c r="G58" s="2">
-        <v>50.509</v>
-      </c>
-      <c r="H58" s="2">
-        <f>((F58-G58)/F58)*100</f>
-        <v>39.313949297128445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>40.24145616641902</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="4">
+        <f>AVERAGE(E53:E57)</f>
+        <v>85.984918617764393</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="4">
+        <f>AVERAGE(H53:H57)</f>
+        <v>39.724980807316797</v>
+      </c>
+      <c r="J58" s="13">
+        <f>AVERAGE(B53:B57)</f>
+        <v>489.6</v>
+      </c>
+      <c r="K58" s="13">
+        <f>AVERAGE(F53:F57)</f>
+        <v>82.61</v>
+      </c>
+      <c r="M58" s="23">
+        <f>AVERAGE(D53:D57)</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="N58" s="23">
+        <f>AVERAGE(G53:G57)</f>
+        <v>49.7958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B59" s="13">
         <v>491</v>
       </c>
       <c r="C59" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D59" s="16">
         <v>67</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" ref="E59:E61" si="2">((B59-D59)/B59)*100</f>
+        <f>((B59-D59)/B59)*100</f>
         <v>86.354378818737274</v>
       </c>
       <c r="F59" s="13">
-        <v>83.23</v>
+        <v>82.87</v>
       </c>
       <c r="G59" s="2">
-        <v>50.449999999999996</v>
+        <v>50.338000000000001</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" ref="H59:H61" si="3">((F59-G59)/F59)*100</f>
-        <v>39.38483719812568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <f>((F59-G59)/F59)*100</f>
+        <v>39.256667068903106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B60" s="13">
         <v>491</v>
       </c>
       <c r="C60" s="13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D60" s="16">
+        <v>67</v>
+      </c>
+      <c r="E60" s="2">
+        <f>((B60-D60)/B60)*100</f>
+        <v>86.354378818737274</v>
+      </c>
+      <c r="F60" s="13">
+        <v>83.23</v>
+      </c>
+      <c r="G60" s="2">
+        <v>50.626999999999995</v>
+      </c>
+      <c r="H60" s="2">
+        <f>((F60-G60)/F60)*100</f>
+        <v>39.172173495133976</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="13">
+        <v>491</v>
+      </c>
+      <c r="C61" s="13">
+        <v>50</v>
+      </c>
+      <c r="D61" s="16">
+        <v>67</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ref="E61:E63" si="4">((B61-D61)/B61)*100</f>
+        <v>86.354378818737274</v>
+      </c>
+      <c r="F61" s="13">
+        <v>83.23</v>
+      </c>
+      <c r="G61" s="2">
+        <v>50.509</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" ref="H61:H63" si="5">((F61-G61)/F61)*100</f>
+        <v>39.313949297128445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="13">
+        <v>491</v>
+      </c>
+      <c r="C62" s="13">
+        <v>50</v>
+      </c>
+      <c r="D62" s="16">
         <v>68</v>
       </c>
-      <c r="E60" s="2">
-        <f t="shared" si="2"/>
+      <c r="E62" s="2">
+        <f t="shared" si="4"/>
         <v>86.150712830957232</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F62" s="13">
         <v>82.96</v>
       </c>
-      <c r="G60" s="2">
-        <v>49.480000000000004</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="3"/>
-        <v>40.356798457087741</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="13">
+      <c r="G62" s="2">
+        <v>49.657000000000004</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="5"/>
+        <v>40.143442622950808</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="13">
         <v>484</v>
-      </c>
-      <c r="C61" s="13">
-        <v>45</v>
-      </c>
-      <c r="D61" s="16">
-        <v>74</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="2"/>
-        <v>84.710743801652882</v>
-      </c>
-      <c r="F61" s="13">
-        <v>80.760000000000005</v>
-      </c>
-      <c r="G61" s="2">
-        <v>48.261000000000003</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="3"/>
-        <v>40.24145616641902</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="4">
-        <f>AVERAGE(E57:E61)</f>
-        <v>85.984918617764393</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="4">
-        <f>AVERAGE(H57:H61)</f>
-        <v>39.724980807316797</v>
-      </c>
-      <c r="J62" s="13">
-        <f>AVERAGE(B57:B61)</f>
-        <v>489.6</v>
-      </c>
-      <c r="K62" s="13">
-        <f>AVERAGE(F57:F61)</f>
-        <v>82.61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="13">
-        <v>491</v>
       </c>
       <c r="C63" s="13">
         <v>50</v>
       </c>
       <c r="D63" s="16">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2">
-        <f>((B63-D63)/B63)*100</f>
-        <v>86.354378818737274</v>
-      </c>
-      <c r="F63" s="13">
-        <v>82.87</v>
-      </c>
-      <c r="G63" s="2">
-        <v>50.338000000000001</v>
-      </c>
-      <c r="H63" s="2">
-        <f>((F63-G63)/F63)*100</f>
-        <v>39.256667068903106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="13">
-        <v>491</v>
-      </c>
-      <c r="C64" s="13">
-        <v>50</v>
-      </c>
-      <c r="D64" s="16">
-        <v>67</v>
-      </c>
-      <c r="E64" s="2">
-        <f>((B64-D64)/B64)*100</f>
-        <v>86.354378818737274</v>
-      </c>
-      <c r="F64" s="13">
-        <v>83.23</v>
-      </c>
-      <c r="G64" s="2">
-        <v>50.626999999999995</v>
-      </c>
-      <c r="H64" s="2">
-        <f>((F64-G64)/F64)*100</f>
-        <v>39.172173495133976</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="13">
-        <v>491</v>
-      </c>
-      <c r="C65" s="13">
-        <v>50</v>
-      </c>
-      <c r="D65" s="16">
-        <v>67</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" ref="E65:E67" si="4">((B65-D65)/B65)*100</f>
-        <v>86.354378818737274</v>
-      </c>
-      <c r="F65" s="13">
-        <v>83.23</v>
-      </c>
-      <c r="G65" s="2">
-        <v>50.509</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" ref="H65:H67" si="5">((F65-G65)/F65)*100</f>
-        <v>39.313949297128445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="13">
-        <v>491</v>
-      </c>
-      <c r="C66" s="13">
-        <v>50</v>
-      </c>
-      <c r="D66" s="16">
-        <v>68</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="4"/>
-        <v>86.150712830957232</v>
-      </c>
-      <c r="F66" s="13">
-        <v>82.96</v>
-      </c>
-      <c r="G66" s="2">
-        <v>49.657000000000004</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="5"/>
-        <v>40.143442622950808</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="13">
-        <v>484</v>
-      </c>
-      <c r="C67" s="13">
-        <v>50</v>
-      </c>
-      <c r="D67" s="16">
-        <v>74</v>
-      </c>
-      <c r="E67" s="2">
         <f t="shared" si="4"/>
         <v>84.710743801652882</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F63" s="13">
         <v>80.760000000000005</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G63" s="2">
         <v>48.090000000000011</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H63" s="2">
         <f t="shared" si="5"/>
         <v>40.453194650817224</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="23" t="s">
+    <row r="64" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="4">
-        <f>AVERAGE(E63:E67)</f>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="4">
+        <f>AVERAGE(E59:E63)</f>
         <v>85.984918617764393</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F64" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="4">
-        <f>AVERAGE(H63:H67)</f>
+      <c r="G64" s="24"/>
+      <c r="H64" s="4">
+        <f>AVERAGE(H59:H63)</f>
         <v>39.667885426986707</v>
       </c>
-      <c r="J68" s="13">
-        <f>AVERAGE(B63:B67)</f>
+      <c r="J64" s="13">
+        <f>AVERAGE(B59:B63)</f>
         <v>489.6</v>
       </c>
-      <c r="K68" s="13">
-        <f>AVERAGE(F63:F67)</f>
+      <c r="K64" s="13">
+        <f>AVERAGE(F59:F63)</f>
         <v>82.61</v>
       </c>
+      <c r="M64" s="23">
+        <f>AVERAGE(D59:D63)</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="N64" s="23">
+        <f>AVERAGE(G59:G63)</f>
+        <v>49.844200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E65" s="2"/>
+      <c r="F65" s="5"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E66" s="2"/>
+      <c r="F66" s="5"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E67" s="2"/>
+      <c r="F67" s="5"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E68" s="2"/>
+      <c r="F68" s="5"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E69" s="2"/>
-      <c r="F69" s="5"/>
-      <c r="H69" s="2"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="4"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E70" s="2"/>
@@ -16896,58 +17045,31 @@
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="4"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="5"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E74" s="2"/>
-      <c r="F74" s="5"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E75" s="2"/>
-      <c r="F75" s="5"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E76" s="2"/>
-      <c r="F76" s="5"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E77" s="2"/>
-      <c r="F77" s="5"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="4"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="4"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="F58:G58"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -16960,10 +17082,10 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:G74"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:G16"/>
@@ -16983,10 +17105,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8D37C3-64EE-4EA8-8330-9EB41DEEEB25}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17000,64 +17122,64 @@
     <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
@@ -17083,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
@@ -17109,7 +17231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -17135,21 +17257,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4">
         <f>AVERAGE(E5:E7)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="4">
         <f>AVERAGE(H5:H7)</f>
         <v>0</v>
@@ -17162,8 +17284,16 @@
         <f>AVERAGE(F5:F7)</f>
         <v>48.04999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="9">
+        <f>AVERAGE(D5:D7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f>AVERAGE(G5:G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -17189,7 +17319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>16</v>
       </c>
@@ -17215,7 +17345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
@@ -17241,21 +17371,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="4">
         <f>AVERAGE(E9:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="4">
         <f>AVERAGE(H9:H11)</f>
         <v>0</v>
@@ -17268,8 +17398,16 @@
         <f>AVERAGE(F9:F11)</f>
         <v>48.04999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12" s="9">
+        <f>AVERAGE(D9:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <f>AVERAGE(G9:G11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -17297,7 +17435,7 @@
         <v>13.522372528616017</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -17327,7 +17465,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -17355,21 +17493,21 @@
         <v>12.266597510373462</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4">
         <f>AVERAGE(E13:E15)</f>
         <v>67.696078431372555</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="4">
         <f>AVERAGE(H13:H15)</f>
         <v>12.409127800052865</v>
@@ -17382,8 +17520,16 @@
         <f>AVERAGE(F13:F15)</f>
         <v>48.04999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="9">
+        <f>AVERAGE(D13:D15)</f>
+        <v>5.4916666666666671</v>
+      </c>
+      <c r="N16" s="2">
+        <f>AVERAGE(G13:G15)</f>
+        <v>42.086999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -17411,7 +17557,7 @@
         <v>13.548387096774189</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
@@ -17439,7 +17585,7 @@
         <v>11.783477482851165</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -17467,21 +17613,21 @@
         <v>12.420470262793923</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="4">
         <f>AVERAGE(E17:E19)</f>
         <v>70.681605975723627</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="4">
         <f>AVERAGE(H17:H19)</f>
         <v>12.584111614139758</v>
@@ -17494,8 +17640,16 @@
         <f>AVERAGE(F17:F19)</f>
         <v>48.04999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="9">
+        <f>AVERAGE(D17:D19)</f>
+        <v>4.9841269841269842</v>
+      </c>
+      <c r="N20" s="2">
+        <f>AVERAGE(G17:G19)</f>
+        <v>42.003015873015876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -17523,7 +17677,7 @@
         <v>13.756503642039542</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -17551,7 +17705,7 @@
         <v>11.484864300626317</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>17</v>
       </c>
@@ -17579,21 +17733,21 @@
         <v>11.989626556016605</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4">
         <f>AVERAGE(E21:E23)</f>
         <v>70.936819172113289</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="4">
         <f>AVERAGE(H21:H23)</f>
         <v>12.41033149956082</v>
@@ -17606,8 +17760,16 @@
         <f>AVERAGE(F21:F23)</f>
         <v>48.04999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24" s="9">
+        <f>AVERAGE(D21:D23)</f>
+        <v>4.9407407407407407</v>
+      </c>
+      <c r="N24" s="2">
+        <f>AVERAGE(G21:G23)</f>
+        <v>42.08658333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
@@ -17635,7 +17797,7 @@
         <v>14.819979188345478</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -17663,7 +17825,7 @@
         <v>19.684237995824638</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>17</v>
       </c>
@@ -17691,21 +17853,21 @@
         <v>21.489626556016606</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4">
         <f>AVERAGE(E25:E27)</f>
         <v>76.078431372549019</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="4">
         <f>AVERAGE(H25:H27)</f>
         <v>18.664614580062239</v>
@@ -17718,8 +17880,16 @@
         <f>AVERAGE(F25:F27)</f>
         <v>48.04999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M28" s="9">
+        <f>AVERAGE(D25:D27)</f>
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="N28" s="2">
+        <f>AVERAGE(G25:G27)</f>
+        <v>39.080750000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>15</v>
       </c>
@@ -17748,7 +17918,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>16</v>
       </c>
@@ -17777,7 +17947,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>17</v>
       </c>
@@ -17806,21 +17976,21 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="4">
         <f>AVERAGE(E29:E31)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="4">
         <f>AVERAGE(H29:H31)</f>
         <v>0</v>
@@ -17834,8 +18004,16 @@
         <f>AVERAGE(F29:F31)</f>
         <v>48.04999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="9">
+        <f>AVERAGE(D29:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <f>AVERAGE(G29:G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
@@ -17861,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>16</v>
       </c>
@@ -17887,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>17</v>
       </c>
@@ -17916,21 +18094,21 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="4">
         <f>AVERAGE(E35:E35)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="4">
         <f>AVERAGE(H35:H35)</f>
         <v>0</v>
@@ -17944,8 +18122,16 @@
         <f>AVERAGE(F35:F35)</f>
         <v>48.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="9">
+        <f>AVERAGE(D33:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <f>AVERAGE(G33:G35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>15</v>
       </c>
@@ -17971,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>16</v>
       </c>
@@ -17997,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>17</v>
       </c>
@@ -18023,21 +18209,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="4">
         <f>AVERAGE(E39:E39)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="24"/>
       <c r="H40" s="4">
         <f>AVERAGE(H39:H39)</f>
         <v>0</v>
@@ -18051,8 +18237,16 @@
         <f>AVERAGE(F39:F39)</f>
         <v>48.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M40" s="9">
+        <f>AVERAGE(D37:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <f>AVERAGE(G37:G39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>15</v>
       </c>
@@ -18083,7 +18277,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>16</v>
       </c>
@@ -18114,7 +18308,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>17</v>
       </c>
@@ -18145,21 +18339,21 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="4">
         <f>AVERAGE(E41:E43)</f>
         <v>88.235294117647058</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="4">
         <f>AVERAGE(H41:H43)</f>
         <v>47.755664161659581</v>
@@ -18172,6 +18366,14 @@
       <c r="K44" s="11">
         <f>AVERAGE(F41:F43)</f>
         <v>48.04999999999999</v>
+      </c>
+      <c r="M44" s="9">
+        <f>AVERAGE(D41:D43)</f>
+        <v>2</v>
+      </c>
+      <c r="N44" s="2">
+        <f>AVERAGE(G41:G43)</f>
+        <v>25.103333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -18215,10 +18417,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0111D638-9A68-46E5-8BF4-5068C6396900}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50:H53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18229,64 +18431,64 @@
     <col min="8" max="8" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="28"/>
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -18315,7 +18517,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -18344,7 +18546,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -18373,7 +18575,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -18402,21 +18604,21 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="4">
         <f>AVERAGE(E5:E8)</f>
         <v>57.352941176470594</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="4">
         <f>AVERAGE(H5:H8)</f>
         <v>0.72567667430597194</v>
@@ -18429,8 +18631,16 @@
         <f>AVERAGE(F5:F8)</f>
         <v>92.647499999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="9">
+        <f>AVERAGE(D5:D8)</f>
+        <v>7.25</v>
+      </c>
+      <c r="N9" s="2">
+        <f>AVERAGE(G5:G8)</f>
+        <v>91.975000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -18458,7 +18668,7 @@
         <v>0.85156839495525716</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -18486,7 +18696,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -18514,7 +18724,7 @@
         <v>0.59446606139212832</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -18542,21 +18752,21 @@
         <v>0.37841928857173135</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="4">
         <f>AVERAGE(E10:E13)</f>
         <v>41.911764705882362</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="4">
         <f>AVERAGE(H10:H13)</f>
         <v>0.66891378102021304</v>
@@ -18569,8 +18779,16 @@
         <f>AVERAGE(F10:F13)</f>
         <v>92.647499999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14" s="9">
+        <f>AVERAGE(D10:D13)</f>
+        <v>9.875</v>
+      </c>
+      <c r="N14" s="2">
+        <f>AVERAGE(G10:G13)</f>
+        <v>92.027500000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -18598,7 +18816,7 @@
         <v>0.85156839495525716</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -18626,7 +18844,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -18654,7 +18872,7 @@
         <v>0.59446606139212832</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -18682,20 +18900,20 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="4">
         <f>AVERAGE(E15:E18)</f>
         <v>45.098039215686278</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="4">
         <f>AVERAGE(H15:H18)</f>
         <v>0.72567667430597194</v>
@@ -18708,8 +18926,16 @@
         <f>AVERAGE(F15:F18)</f>
         <v>92.647499999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19" s="9">
+        <f>AVERAGE(D15:D18)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="N19" s="2">
+        <f>AVERAGE(G15:G18)</f>
+        <v>91.975000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -18733,11 +18959,11 @@
         <v>91.98</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:H28" si="7">((F20-G20)/F20)*100</f>
+        <f t="shared" ref="H20:H23" si="7">((F20-G20)/F20)*100</f>
         <v>0.85156839495525716</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
@@ -18765,7 +18991,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>11</v>
       </c>
@@ -18793,7 +19019,7 @@
         <v>0.529787004000427</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -18821,21 +19047,21 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="4">
         <f>AVERAGE(E20:E23)</f>
         <v>36.764705882352942</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="4">
         <f>AVERAGE(H20:H23)</f>
         <v>0.70950690995804655</v>
@@ -18848,8 +19074,16 @@
         <f>AVERAGE(F20:F23)</f>
         <v>92.64</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M24" s="9">
+        <f>AVERAGE(D20:D23)</f>
+        <v>10.75</v>
+      </c>
+      <c r="N24" s="2">
+        <f>AVERAGE(G20:G23)</f>
+        <v>91.982500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -18877,7 +19111,7 @@
         <v>0.85156839495525716</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
@@ -18905,7 +19139,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>11</v>
       </c>
@@ -18933,7 +19167,7 @@
         <v>0.59446606139212832</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>12</v>
       </c>
@@ -18961,21 +19195,21 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="4">
         <f>AVERAGE(E25:E28)</f>
         <v>35.294117647058826</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="4">
         <f>AVERAGE(H25:H28)</f>
         <v>0.72567667430597194</v>
@@ -18988,8 +19222,16 @@
         <f>AVERAGE(F25:F28)</f>
         <v>92.647499999999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M29" s="9">
+        <f>AVERAGE(D25:D28)</f>
+        <v>11</v>
+      </c>
+      <c r="N29" s="2">
+        <f>AVERAGE(G25:G28)</f>
+        <v>91.975000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>9</v>
       </c>
@@ -19017,7 +19259,7 @@
         <v>3.0218102116344867</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>10</v>
       </c>
@@ -19045,7 +19287,7 @@
         <v>0.87275078116582505</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
@@ -19073,7 +19315,7 @@
         <v>0.59446606139212832</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>12</v>
       </c>
@@ -19101,21 +19343,21 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="4">
         <f>AVERAGE(E30:E33)</f>
         <v>49.264705882352942</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="4">
         <f>AVERAGE(H30:H33)</f>
         <v>1.2736244789768019</v>
@@ -19128,8 +19370,16 @@
         <f>AVERAGE(F30:F33)</f>
         <v>92.647499999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M34" s="9">
+        <f>AVERAGE(D30:D33)</f>
+        <v>8.625</v>
+      </c>
+      <c r="N34" s="2">
+        <f>AVERAGE(G30:G33)</f>
+        <v>91.466666666666683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>9</v>
       </c>
@@ -19157,7 +19407,7 @@
         <v>0.83000970141209018</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>10</v>
       </c>
@@ -19185,7 +19435,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>11</v>
       </c>
@@ -19213,7 +19463,7 @@
         <v>0.59446606139214375</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>12</v>
       </c>
@@ -19241,21 +19491,21 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="4">
         <f>AVERAGE(E36:E38)</f>
         <v>50.326797385620914</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="24"/>
       <c r="H39" s="4">
         <f>AVERAGE(H36:H38)</f>
         <v>0.68371276742288201</v>
@@ -19268,8 +19518,16 @@
         <f>AVERAGE(F36:F38)</f>
         <v>92.606666666666669</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M39" s="9">
+        <f>AVERAGE(D35:D38)</f>
+        <v>8.7083333333333339</v>
+      </c>
+      <c r="N39" s="2">
+        <f>AVERAGE(G35:G38)</f>
+        <v>91.97999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>9</v>
       </c>
@@ -19297,7 +19555,7 @@
         <v>0.85156839495525716</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
@@ -19325,7 +19583,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>11</v>
       </c>
@@ -19353,7 +19611,7 @@
         <v>0.59446606139212832</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>12</v>
       </c>
@@ -19381,21 +19639,21 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="4">
         <f>AVERAGE(E40:E43)</f>
         <v>57.352941176470594</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="4">
         <f>AVERAGE(H40:H43)</f>
         <v>0.72567667430597194</v>
@@ -19408,8 +19666,16 @@
         <f>AVERAGE(F40:F43)</f>
         <v>92.647499999999994</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M44" s="9">
+        <f>AVERAGE(D40:D43)</f>
+        <v>7.25</v>
+      </c>
+      <c r="N44" s="2">
+        <f>AVERAGE(G40:G43)</f>
+        <v>91.975000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>9</v>
       </c>
@@ -19437,7 +19703,7 @@
         <v>1.8540476447127294</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
@@ -19465,7 +19731,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>11</v>
       </c>
@@ -19493,7 +19759,7 @@
         <v>0.51880674448766728</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>12</v>
       </c>
@@ -19521,21 +19787,21 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="4">
         <f>AVERAGE(E45:E48)</f>
         <v>46.32352941176471</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="23"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="4">
         <f>AVERAGE(H45:H48)</f>
         <v>0.95738165751922466</v>
@@ -19548,8 +19814,16 @@
         <f>AVERAGE(F45:F48)</f>
         <v>92.647499999999994</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M49" s="9">
+        <f>AVERAGE(D45:D48)</f>
+        <v>9.125</v>
+      </c>
+      <c r="N49" s="2">
+        <f>AVERAGE(G45:G48)</f>
+        <v>91.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>9</v>
       </c>
@@ -19578,7 +19852,7 @@
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>10</v>
       </c>
@@ -19606,7 +19880,7 @@
         <v>0.85120137916173499</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>11</v>
       </c>
@@ -19634,7 +19908,7 @@
         <v>0.59446606139212832</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>12</v>
       </c>
@@ -19662,21 +19936,21 @@
         <v>0.60547086171476716</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="4">
         <f>AVERAGE(E51:E53)</f>
         <v>48.151260504201673</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="4">
         <f>AVERAGE(H51:H53)</f>
         <v>0.68371276742287679</v>
@@ -19688,6 +19962,14 @@
       <c r="K54" s="15">
         <f>AVERAGE(F49:F53)</f>
         <v>92.647499999999994</v>
+      </c>
+      <c r="M54" s="9">
+        <f>AVERAGE(D50:D53)</f>
+        <v>8.1107142857142858</v>
+      </c>
+      <c r="N54" s="2">
+        <f>AVERAGE(G50:G53)</f>
+        <v>91.642499999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19731,10 +20013,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCFA3DB-4726-4277-9A5F-507A2B29121C}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19745,64 +20027,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -19818,7 +20100,6 @@
         <v>127</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E14" si="0">((B5-D5)/B5)*100</f>
         <v>73.375262054507346</v>
       </c>
       <c r="F5" s="1">
@@ -19828,7 +20109,6 @@
         <v>37.57</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" ref="H5:H14" si="1">((F5-G5)/F5)*100</f>
         <v>4.1092394078611525</v>
       </c>
     </row>
@@ -19837,27 +20117,25 @@
         <v>41</v>
       </c>
       <c r="B6" s="9">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="C6" s="12">
         <v>10</v>
       </c>
       <c r="D6" s="9">
-        <v>121.75</v>
+        <v>111.6</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>75.74701195219123</v>
+        <v>76.603773584905653</v>
       </c>
       <c r="F6" s="1">
-        <v>39.06</v>
+        <v>39.18</v>
       </c>
       <c r="G6" s="20">
-        <v>36</v>
+        <v>36.738</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="1"/>
-        <v>7.834101382488484</v>
+        <v>6.2327718223583473</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19865,27 +20143,25 @@
         <v>41</v>
       </c>
       <c r="B7" s="9">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="C7" s="12">
         <v>15</v>
       </c>
       <c r="D7" s="9">
-        <v>114.22</v>
+        <v>112.4</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>77.24701195219123</v>
+        <v>76.436058700209657</v>
       </c>
       <c r="F7" s="1">
-        <v>39.06</v>
+        <v>39.18</v>
       </c>
       <c r="G7" s="20">
-        <v>35.72</v>
+        <v>36.530000000000008</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="1"/>
-        <v>8.5509472606246888</v>
+        <v>6.763654925982622</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19893,27 +20169,25 @@
         <v>41</v>
       </c>
       <c r="B8" s="9">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="C8" s="12">
         <v>20</v>
       </c>
       <c r="D8" s="9">
-        <v>111.43</v>
+        <v>103.8</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>77.802788844621517</v>
+        <v>78.238993710691815</v>
       </c>
       <c r="F8" s="1">
-        <v>39.06</v>
+        <v>39.18</v>
       </c>
       <c r="G8" s="20">
-        <v>35.82</v>
+        <v>36.732000000000006</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" si="1"/>
-        <v>8.2949308755760409</v>
+        <v>6.2480857580397995</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19921,27 +20195,25 @@
         <v>41</v>
       </c>
       <c r="B9" s="9">
-        <v>504.25</v>
+        <v>477</v>
       </c>
       <c r="C9" s="12">
         <v>25</v>
       </c>
       <c r="D9" s="9">
-        <v>120.64</v>
+        <v>112</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>76.075359444719879</v>
+        <v>76.519916142557648</v>
       </c>
       <c r="F9" s="1">
-        <v>38.11</v>
+        <v>39.18</v>
       </c>
       <c r="G9" s="20">
-        <v>33.83</v>
+        <v>36.665000000000006</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="1"/>
-        <v>11.23064812385201</v>
+        <v>6.4190913731495494</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19949,27 +20221,25 @@
         <v>41</v>
       </c>
       <c r="B10" s="9">
-        <v>504.25</v>
+        <v>477</v>
       </c>
       <c r="C10" s="12">
         <v>30</v>
       </c>
       <c r="D10" s="9">
-        <v>111.125</v>
+        <v>100.5</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>77.96232027764006</v>
+        <v>78.930817610062903</v>
       </c>
       <c r="F10" s="1">
-        <v>38.11</v>
+        <v>39.18</v>
       </c>
       <c r="G10" s="20">
-        <v>33.31</v>
+        <v>36.1</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="1"/>
-        <v>12.59511939123589</v>
+        <v>7.8611536498213326</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -19977,27 +20247,25 @@
         <v>41</v>
       </c>
       <c r="B11" s="9">
-        <v>504.25</v>
+        <v>477</v>
       </c>
       <c r="C11" s="12">
         <v>35</v>
       </c>
       <c r="D11" s="9">
-        <v>115.62</v>
+        <v>110.16666666666667</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>77.070897372335139</v>
+        <v>76.904262753319358</v>
       </c>
       <c r="F11" s="1">
-        <v>38.11</v>
+        <v>39.18</v>
       </c>
       <c r="G11" s="20">
-        <v>33.08</v>
+        <v>34.991666666666667</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" si="1"/>
-        <v>13.19863552873262</v>
+        <v>10.68997787987068</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20005,27 +20273,25 @@
         <v>41</v>
       </c>
       <c r="B12" s="9">
-        <v>504.25</v>
+        <v>477</v>
       </c>
       <c r="C12" s="12">
         <v>40</v>
       </c>
       <c r="D12" s="9">
-        <v>109.7</v>
+        <v>105.75</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>78.244918195339622</v>
+        <v>77.830188679245282</v>
       </c>
       <c r="F12" s="1">
-        <v>38.11</v>
+        <v>39.18</v>
       </c>
       <c r="G12" s="20">
-        <v>32.090000000000003</v>
+        <v>33.457499999999996</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="1"/>
-        <v>15.796378903175009</v>
+        <v>14.605666156202155</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20033,27 +20299,25 @@
         <v>41</v>
       </c>
       <c r="B13" s="9">
-        <v>504.25</v>
+        <v>477</v>
       </c>
       <c r="C13" s="12">
         <v>45</v>
       </c>
       <c r="D13" s="9">
-        <v>106.81</v>
+        <v>104.5</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>78.818046603867131</v>
+        <v>78.092243186582806</v>
       </c>
       <c r="F13" s="1">
-        <v>38.11</v>
+        <v>39.18</v>
       </c>
       <c r="G13" s="20">
-        <v>28.24</v>
+        <v>30.477499999999999</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="1"/>
-        <v>25.898714248228817</v>
+        <v>22.211587544665647</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20061,27 +20325,25 @@
         <v>41</v>
       </c>
       <c r="B14" s="9">
-        <v>504.25</v>
+        <v>477</v>
       </c>
       <c r="C14" s="12">
         <v>50</v>
       </c>
       <c r="D14" s="9">
-        <v>107.05</v>
+        <v>102.8</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>78.770451165096674</v>
+        <v>78.448637316561843</v>
       </c>
       <c r="F14" s="1">
-        <v>38.11</v>
+        <v>39.18</v>
       </c>
       <c r="G14" s="20">
-        <v>27.17</v>
+        <v>26.506</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="1"/>
-        <v>28.706376279191808</v>
+        <v>32.348136804492086</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20089,27 +20351,27 @@
         <v>40</v>
       </c>
       <c r="B15" s="9">
-        <v>209.66</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C15" s="12">
         <v>5</v>
       </c>
       <c r="D15" s="9">
-        <v>76.83</v>
+        <v>76.833333333333329</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E22" si="2">((B15-D15)/B15)*100</f>
-        <v>63.354955642468759</v>
+        <f t="shared" ref="E15:E22" si="0">((B15-D15)/B15)*100</f>
+        <v>63.35453100158982</v>
       </c>
       <c r="F15" s="1">
         <v>82.99</v>
       </c>
-      <c r="G15" s="21">
-        <v>81.72</v>
+      <c r="G15" s="20">
+        <v>81.724166666666676</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" ref="H15:H22" si="3">((F15-G15)/F15)*100</f>
-        <v>1.5303048560067432</v>
+        <f t="shared" ref="H15:H22" si="1">((F15-G15)/F15)*100</f>
+        <v>1.5252841707836113</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20117,27 +20379,27 @@
         <v>40</v>
       </c>
       <c r="B16" s="9">
-        <v>208.25</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C16" s="12">
         <v>10</v>
       </c>
       <c r="D16" s="9">
-        <v>77.34</v>
+        <v>73.288888888888891</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
-        <v>62.861944777911162</v>
+        <f t="shared" si="0"/>
+        <v>65.045045045045043</v>
       </c>
       <c r="F16" s="1">
-        <v>82.66</v>
-      </c>
-      <c r="G16" s="21">
-        <v>76.44</v>
+        <v>82.99</v>
+      </c>
+      <c r="G16" s="20">
+        <v>77.24077777777778</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="3"/>
-        <v>7.5248003871279927</v>
+        <f t="shared" si="1"/>
+        <v>6.9276084133295761</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20145,27 +20407,27 @@
         <v>40</v>
       </c>
       <c r="B17" s="9">
-        <v>210.2</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C17" s="12">
         <v>15</v>
       </c>
       <c r="D17" s="9">
-        <v>75.63</v>
+        <v>70.505555555555546</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
-        <v>64.019980970504292</v>
+        <f t="shared" si="0"/>
+        <v>66.372549019607845</v>
       </c>
       <c r="F17" s="1">
-        <v>81.99</v>
-      </c>
-      <c r="G17" s="21">
-        <v>73.81</v>
+        <v>82.99</v>
+      </c>
+      <c r="G17" s="20">
+        <v>75.680888888888887</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="3"/>
-        <v>9.9768264422490471</v>
+        <f t="shared" si="1"/>
+        <v>8.8072190759261453</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20173,27 +20435,27 @@
         <v>40</v>
       </c>
       <c r="B18" s="9">
-        <v>208.25</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C18" s="12">
         <v>20</v>
       </c>
       <c r="D18" s="9">
-        <v>71.27</v>
+        <v>67.36666666666666</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
-        <v>65.776710684273723</v>
+        <f t="shared" si="0"/>
+        <v>67.869634340222589</v>
       </c>
       <c r="F18" s="1">
-        <v>82.66</v>
-      </c>
-      <c r="G18" s="21">
-        <v>72.290000000000006</v>
+        <v>82.99</v>
+      </c>
+      <c r="G18" s="20">
+        <v>72.854777777777784</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="3"/>
-        <v>12.54536656181949</v>
+        <f t="shared" si="1"/>
+        <v>12.21258250659382</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20201,27 +20463,27 @@
         <v>40</v>
       </c>
       <c r="B19" s="9">
-        <v>209.66</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C19" s="12">
         <v>25</v>
       </c>
       <c r="D19" s="9">
-        <v>70.72</v>
+        <v>70.722222222222229</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
-        <v>66.269197748736048</v>
+        <f t="shared" si="0"/>
+        <v>66.269210386857452</v>
       </c>
       <c r="F19" s="1">
         <v>82.99</v>
       </c>
-      <c r="G19" s="21">
-        <v>74.56</v>
+      <c r="G19" s="20">
+        <v>74.561111111111117</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="3"/>
-        <v>10.157850343414861</v>
+        <f t="shared" si="1"/>
+        <v>10.156511494022025</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20229,27 +20491,27 @@
         <v>40</v>
       </c>
       <c r="B20" s="9">
-        <v>209.66</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C20" s="12">
         <v>30</v>
       </c>
       <c r="D20" s="9">
-        <v>68.38</v>
+        <v>68.3888888888889</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
-        <v>67.385290470285227</v>
+        <f t="shared" si="0"/>
+        <v>67.382087970323269</v>
       </c>
       <c r="F20" s="1">
         <v>82.99</v>
       </c>
-      <c r="G20" s="21">
-        <v>70.31</v>
+      <c r="G20" s="20">
+        <v>70.311666666666667</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="3"/>
-        <v>15.278949270996497</v>
+        <f t="shared" si="1"/>
+        <v>15.276940996907252</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20257,26 +20519,26 @@
         <v>40</v>
       </c>
       <c r="B21" s="9">
-        <v>209.66</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C21" s="12">
         <v>35</v>
       </c>
       <c r="D21" s="9">
-        <v>66.66</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="2"/>
-        <v>68.205666316894025</v>
+        <f t="shared" si="0"/>
+        <v>68.203497615262322</v>
       </c>
       <c r="F21" s="1">
         <v>82.99</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>67.31</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18.893842631642357</v>
       </c>
     </row>
@@ -20285,27 +20547,27 @@
         <v>40</v>
       </c>
       <c r="B22" s="9">
-        <v>209.66</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C22" s="12">
         <v>40</v>
       </c>
       <c r="D22" s="9">
-        <v>57.08</v>
+        <v>57.088888888888881</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="2"/>
-        <v>72.774968997424395</v>
+        <f t="shared" si="0"/>
+        <v>72.771595124536304</v>
       </c>
       <c r="F22" s="1">
         <v>82.99</v>
       </c>
-      <c r="G22" s="21">
-        <v>63.82</v>
+      <c r="G22" s="20">
+        <v>63.825055555555558</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="3"/>
-        <v>23.099168574527045</v>
+        <f t="shared" si="1"/>
+        <v>23.093076809789657</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20313,27 +20575,27 @@
         <v>40</v>
       </c>
       <c r="B23" s="9">
-        <v>213.66</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C23" s="12">
         <v>45</v>
       </c>
       <c r="D23" s="9">
-        <v>32.43</v>
+        <v>32.43386243386243</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23" si="4">((B23-D23)/B23)*100</f>
-        <v>84.821679303566413</v>
+        <f t="shared" ref="E23" si="2">((B23-D23)/B23)*100</f>
+        <v>84.530749236631593</v>
       </c>
       <c r="F23" s="1">
-        <v>81.06</v>
-      </c>
-      <c r="G23" s="21">
-        <v>45.4</v>
+        <v>82.99</v>
+      </c>
+      <c r="G23" s="20">
+        <v>45.868095238095236</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" ref="H23" si="5">((F23-G23)/F23)*100</f>
-        <v>43.992104613866275</v>
+        <f t="shared" ref="H23" si="3">((F23-G23)/F23)*100</f>
+        <v>44.730575686112495</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -20341,27 +20603,27 @@
         <v>40</v>
       </c>
       <c r="B24" s="9">
-        <v>209.66</v>
+        <v>209.66666666666666</v>
       </c>
       <c r="C24" s="12">
         <v>50</v>
       </c>
       <c r="D24" s="9">
-        <v>42.33</v>
+        <v>42.333333333333336</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:E45" si="6">((B24-D24)/B24)*100</f>
-        <v>79.810168844796323</v>
+        <f t="shared" ref="E24:E44" si="4">((B24-D24)/B24)*100</f>
+        <v>79.809220985691567</v>
       </c>
       <c r="F24" s="1">
         <v>82.99</v>
       </c>
-      <c r="G24" s="21">
-        <v>54.39</v>
+      <c r="G24" s="20">
+        <v>54.396666666666668</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" ref="H24:H45" si="7">((F24-G24)/F24)*100</f>
-        <v>34.461983371490533</v>
+        <f t="shared" ref="H24:H44" si="5">((F24-G24)/F24)*100</f>
+        <v>34.453950275133543</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -20482,7 +20744,7 @@
         <v>186.28</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>71.341538461538462</v>
       </c>
       <c r="F29" s="1">
@@ -20492,7 +20754,7 @@
         <v>64.150000000000006</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>23.21043811347857</v>
       </c>
     </row>
@@ -20510,7 +20772,7 @@
         <v>161</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>75.230769230769241</v>
       </c>
       <c r="F30" s="1">
@@ -20520,7 +20782,7 @@
         <v>61.12</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>26.837443141010304</v>
       </c>
     </row>
@@ -20538,7 +20800,7 @@
         <v>153.83000000000001</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>76.333846153846153</v>
       </c>
       <c r="F31" s="1">
@@ -20548,7 +20810,7 @@
         <v>59.43</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>28.860426143164958</v>
       </c>
     </row>
@@ -20566,7 +20828,7 @@
         <v>155.33000000000001</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>76.103076923076912</v>
       </c>
       <c r="F32" s="1">
@@ -20576,7 +20838,7 @@
         <v>59.91</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>28.285851089298546</v>
       </c>
     </row>
@@ -20594,7 +20856,7 @@
         <v>154.71</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>76.198461538461544</v>
       </c>
       <c r="F33" s="1">
@@ -20604,7 +20866,7 @@
         <v>59.29</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>29.028010533875992</v>
       </c>
     </row>
@@ -20622,7 +20884,7 @@
         <v>152.41999999999999</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>76.550769230769234</v>
       </c>
       <c r="F34" s="1">
@@ -20632,36 +20894,36 @@
         <v>59.11</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>29.243476179075898</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>52</v>
+    <row r="35" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="9">
-        <v>7</v>
-      </c>
-      <c r="C35" s="18">
+        <v>859.33</v>
+      </c>
+      <c r="C35" s="14">
         <v>5</v>
       </c>
       <c r="D35" s="9">
-        <v>4</v>
+        <v>277.15000000000003</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="6"/>
-        <v>42.857142857142854</v>
+        <f t="shared" si="4"/>
+        <v>67.748129356591775</v>
       </c>
       <c r="F35" s="1">
-        <v>7.46</v>
-      </c>
-      <c r="G35" s="21">
-        <v>7.31</v>
+        <v>68.75</v>
+      </c>
+      <c r="G35" s="20">
+        <v>66.823333333333338</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="7"/>
-        <v>2.0107238605898172</v>
+        <f t="shared" si="5"/>
+        <v>2.802424242424236</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20672,24 +20934,24 @@
         <v>859.33</v>
       </c>
       <c r="C36" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D36" s="9">
-        <v>277.14999999999998</v>
+        <v>272.01111111111112</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="6"/>
-        <v>67.748129356591775</v>
+        <f t="shared" si="4"/>
+        <v>68.34614046860797</v>
       </c>
       <c r="F36" s="1">
         <v>68.75</v>
       </c>
-      <c r="G36" s="21">
-        <v>66.819999999999993</v>
+      <c r="G36" s="20">
+        <v>64.751888888888899</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="7"/>
-        <v>2.8072727272727369</v>
+        <f t="shared" si="5"/>
+        <v>5.8154343434343279</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20700,24 +20962,24 @@
         <v>859.33</v>
       </c>
       <c r="C37" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37" s="9">
-        <v>272.01</v>
+        <v>261.78888888888883</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="6"/>
-        <v>68.346269768307863</v>
+        <f t="shared" si="4"/>
+        <v>69.53569770764561</v>
       </c>
       <c r="F37" s="1">
         <v>68.75</v>
       </c>
-      <c r="G37" s="21">
-        <v>64.75</v>
+      <c r="G37" s="20">
+        <v>62.507222222222218</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="7"/>
-        <v>5.8181818181818183</v>
+        <f t="shared" si="5"/>
+        <v>9.0804040404040478</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20728,24 +20990,24 @@
         <v>859.33</v>
       </c>
       <c r="C38" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" s="9">
-        <v>261.77999999999997</v>
+        <v>251.9047619047619</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="6"/>
-        <v>69.536732105244795</v>
+        <f t="shared" si="4"/>
+        <v>70.685910895143664</v>
       </c>
       <c r="F38" s="1">
         <v>68.75</v>
       </c>
-      <c r="G38" s="21">
-        <v>62.5</v>
+      <c r="G38" s="20">
+        <v>59.631111111111117</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="7"/>
-        <v>9.0909090909090917</v>
+        <f t="shared" si="5"/>
+        <v>13.263838383838374</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20756,24 +21018,24 @@
         <v>859.33</v>
       </c>
       <c r="C39" s="14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D39" s="9">
-        <v>251.9</v>
+        <v>246.71428571428569</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="6"/>
-        <v>70.686465036714651</v>
+        <f t="shared" si="4"/>
+        <v>71.289925207512169</v>
       </c>
       <c r="F39" s="1">
         <v>68.75</v>
       </c>
-      <c r="G39" s="21">
-        <v>59.63</v>
+      <c r="G39" s="20">
+        <v>58.039444444444449</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="7"/>
-        <v>13.265454545454542</v>
+        <f t="shared" si="5"/>
+        <v>15.578989898989892</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20781,27 +21043,27 @@
         <v>39</v>
       </c>
       <c r="B40" s="9">
-        <v>852.75</v>
+        <v>859.33</v>
       </c>
       <c r="C40" s="14">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9">
-        <v>240.78</v>
+        <v>238.6</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="6"/>
-        <v>71.764291996481973</v>
+        <f t="shared" si="4"/>
+        <v>72.234182444462547</v>
       </c>
       <c r="F40" s="1">
-        <v>68.19</v>
-      </c>
-      <c r="G40" s="21">
-        <v>56.33</v>
+        <v>68.75</v>
+      </c>
+      <c r="G40" s="20">
+        <v>55.124444444444443</v>
       </c>
       <c r="H40" s="20">
-        <f t="shared" si="7"/>
-        <v>17.392579557119809</v>
+        <f t="shared" si="5"/>
+        <v>19.818989898989901</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20809,27 +21071,27 @@
         <v>39</v>
       </c>
       <c r="B41" s="9">
-        <v>852.75</v>
+        <v>859.33</v>
       </c>
       <c r="C41" s="14">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D41" s="9">
-        <v>226.76</v>
+        <v>234.13888888888891</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="6"/>
-        <v>73.408384637936081</v>
+        <f t="shared" si="4"/>
+        <v>72.753320739542559</v>
       </c>
       <c r="F41" s="1">
-        <v>68.19</v>
-      </c>
-      <c r="G41" s="21">
-        <v>53.71</v>
+        <v>68.75</v>
+      </c>
+      <c r="G41" s="20">
+        <v>54.317777777777771</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" si="7"/>
-        <v>21.234785159114235</v>
+        <f t="shared" si="5"/>
+        <v>20.992323232323244</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20837,27 +21099,27 @@
         <v>39</v>
       </c>
       <c r="B42" s="9">
-        <v>852.75</v>
+        <v>859.33</v>
       </c>
       <c r="C42" s="14">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D42" s="9">
-        <v>223.04</v>
+        <v>224.93333333333331</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="6"/>
-        <v>73.844620345939617</v>
+        <f t="shared" si="4"/>
+        <v>73.824568753175939</v>
       </c>
       <c r="F42" s="1">
-        <v>68.19</v>
-      </c>
-      <c r="G42" s="21">
-        <v>52.82</v>
+        <v>68.75</v>
+      </c>
+      <c r="G42" s="20">
+        <v>52.091126984126987</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="7"/>
-        <v>22.539961871242113</v>
+        <f t="shared" si="5"/>
+        <v>24.231088023088017</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20865,27 +21127,27 @@
         <v>39</v>
       </c>
       <c r="B43" s="9">
-        <v>852.75</v>
+        <v>859.33</v>
       </c>
       <c r="C43" s="14">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D43" s="9">
-        <v>216.55</v>
+        <v>202.54444444444445</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="6"/>
-        <v>74.605687481676924</v>
+        <f t="shared" si="4"/>
+        <v>76.429957706068166</v>
       </c>
       <c r="F43" s="1">
-        <v>68.19</v>
-      </c>
-      <c r="G43" s="21">
-        <v>51.55</v>
+        <v>68.75</v>
+      </c>
+      <c r="G43" s="20">
+        <v>45.870277777777773</v>
       </c>
       <c r="H43" s="20">
-        <f t="shared" si="7"/>
-        <v>24.402405044727967</v>
+        <f t="shared" si="5"/>
+        <v>33.279595959595966</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -20893,55 +21155,53 @@
         <v>39</v>
       </c>
       <c r="B44" s="9">
-        <v>852.75</v>
+        <v>859.33</v>
       </c>
       <c r="C44" s="14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D44" s="9">
-        <v>199.87</v>
+        <v>195.33333333333334</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="6"/>
-        <v>76.561712107886251</v>
+        <f t="shared" si="4"/>
+        <v>77.269112758389284</v>
       </c>
       <c r="F44" s="1">
-        <v>68.19</v>
-      </c>
-      <c r="G44" s="21">
-        <v>46.7</v>
+        <v>68.75</v>
+      </c>
+      <c r="G44" s="20">
+        <v>41.935047619047623</v>
       </c>
       <c r="H44" s="20">
-        <f t="shared" si="7"/>
-        <v>31.514884880481002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>39.003567099567093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B45" s="9">
-        <v>853.8</v>
-      </c>
-      <c r="C45" s="14">
-        <v>50</v>
+        <v>489.6</v>
+      </c>
+      <c r="C45" s="13">
+        <v>5</v>
       </c>
       <c r="D45" s="9">
-        <v>179.88</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="6"/>
-        <v>78.931834153197471</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>67.12</v>
-      </c>
-      <c r="G45" s="21">
-        <v>41.31</v>
+        <v>82.61</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0</v>
       </c>
       <c r="H45" s="20">
-        <f t="shared" si="7"/>
-        <v>38.453516090584031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -20949,10 +21209,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="9">
-        <v>490.55</v>
+        <v>489.6</v>
       </c>
       <c r="C46" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D46" s="9">
         <v>0</v>
@@ -20961,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>81.67</v>
+        <v>82.61</v>
       </c>
       <c r="G46" s="20">
         <v>0</v>
@@ -20975,10 +21235,10 @@
         <v>37</v>
       </c>
       <c r="B47" s="9">
-        <v>490.55</v>
+        <v>489.6</v>
       </c>
       <c r="C47" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
@@ -20987,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>81.67</v>
+        <v>82.61</v>
       </c>
       <c r="G47" s="20">
         <v>0</v>
@@ -21001,10 +21261,10 @@
         <v>37</v>
       </c>
       <c r="B48" s="9">
-        <v>490.55</v>
+        <v>489.6</v>
       </c>
       <c r="C48" s="13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" s="9">
         <v>0</v>
@@ -21013,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>81.67</v>
+        <v>82.61</v>
       </c>
       <c r="G48" s="20">
         <v>0</v>
@@ -21027,10 +21287,10 @@
         <v>37</v>
       </c>
       <c r="B49" s="9">
-        <v>490.55</v>
+        <v>489.6</v>
       </c>
       <c r="C49" s="13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -21039,7 +21299,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>81.67</v>
+        <v>82.61</v>
       </c>
       <c r="G49" s="20">
         <v>0</v>
@@ -21053,10 +21313,10 @@
         <v>37</v>
       </c>
       <c r="B50" s="9">
-        <v>490.55</v>
+        <v>489.6</v>
       </c>
       <c r="C50" s="13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9">
         <v>0</v>
@@ -21065,7 +21325,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>81.67</v>
+        <v>82.61</v>
       </c>
       <c r="G50" s="20">
         <v>0</v>
@@ -21079,10 +21339,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="9">
-        <v>490.55</v>
+        <v>489.6</v>
       </c>
       <c r="C51" s="13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" s="9">
         <v>0</v>
@@ -21091,7 +21351,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>81.67</v>
+        <v>82.61</v>
       </c>
       <c r="G51" s="20">
         <v>0</v>
@@ -21100,41 +21360,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B52" s="9">
-        <v>490.55</v>
-      </c>
-      <c r="C52" s="13">
-        <v>35</v>
+        <v>489.6</v>
+      </c>
+      <c r="C52" s="6">
+        <v>40</v>
       </c>
       <c r="D52" s="9">
-        <v>0</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <f>((B52-D52)/B52)*100</f>
+        <v>85.988562091503269</v>
       </c>
       <c r="F52" s="1">
-        <v>81.67</v>
+        <v>82.61</v>
       </c>
       <c r="G52" s="20">
-        <v>0</v>
+        <v>50.050400000000003</v>
       </c>
       <c r="H52" s="20">
-        <v>0</v>
+        <f>((F52-G52)/F52)*100</f>
+        <v>39.413630311100349</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="9">
         <v>489.6</v>
       </c>
       <c r="C53" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D53" s="9">
         <v>68.599999999999994</v>
@@ -21146,68 +21408,66 @@
       <c r="F53" s="1">
         <v>82.61</v>
       </c>
-      <c r="G53" s="21">
-        <v>50.05</v>
+      <c r="G53" s="20">
+        <v>49.7958</v>
       </c>
       <c r="H53" s="20">
         <f>((F53-G53)/F53)*100</f>
-        <v>39.41411451398136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+        <v>39.721825444861395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="13">
-        <v>490.5</v>
-      </c>
-      <c r="C54" s="6">
-        <v>45</v>
+      <c r="B54" s="9">
+        <v>489.6</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
       </c>
       <c r="D54" s="9">
-        <v>69.62</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E54" s="2">
         <f>((B54-D54)/B54)*100</f>
-        <v>85.80632008154943</v>
+        <v>85.988562091503269</v>
       </c>
       <c r="F54" s="1">
-        <v>81.98</v>
-      </c>
-      <c r="G54" s="21">
-        <v>48.86</v>
+        <v>82.61</v>
+      </c>
+      <c r="G54" s="20">
+        <v>49.844200000000001</v>
       </c>
       <c r="H54" s="20">
         <f>((F54-G54)/F54)*100</f>
-        <v>40.40009758477678</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>37</v>
+        <v>39.663236896259527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B55" s="9">
-        <v>490.55</v>
-      </c>
-      <c r="C55">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C55" s="6">
+        <v>5</v>
       </c>
       <c r="D55" s="9">
-        <v>70.22</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
-        <f>((B55-D55)/B55)*100</f>
-        <v>85.685455101416778</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>81.67</v>
-      </c>
-      <c r="G55" s="21">
-        <v>48</v>
-      </c>
-      <c r="H55" s="20">
-        <f>((F55-G55)/F55)*100</f>
-        <v>41.226888698420474</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -21215,83 +21475,81 @@
         <v>36</v>
       </c>
       <c r="B56" s="9">
-        <v>17.28</v>
+        <v>17</v>
       </c>
       <c r="C56" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D56" s="9">
-        <v>9.66</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
-        <f>((B56-D56)/B56)*100</f>
-        <v>44.097222222222229</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>46.46</v>
-      </c>
-      <c r="G56" s="21">
-        <v>45.7</v>
-      </c>
-      <c r="H56" s="20">
-        <f>((F56-G56)/F56)*100</f>
-        <v>1.6358157554885882</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>36</v>
       </c>
       <c r="B57" s="9">
-        <v>17.28</v>
-      </c>
-      <c r="C57" s="6">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="C57" s="11">
+        <v>15</v>
       </c>
       <c r="D57" s="9">
-        <v>7.03</v>
+        <v>5.4916666666666671</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" ref="E57" si="8">((B57-D57)/B57)*100</f>
-        <v>59.317129629629626</v>
+        <f t="shared" ref="E57" si="6">((B57-D57)/B57)*100</f>
+        <v>67.696078431372541</v>
       </c>
       <c r="F57" s="1">
-        <v>46.46</v>
-      </c>
-      <c r="G57" s="21">
-        <v>43.74</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G57" s="20">
+        <v>42.086999999999996</v>
       </c>
       <c r="H57" s="20">
-        <f t="shared" ref="H57" si="9">((F57-G57)/F57)*100</f>
-        <v>5.8544984933275908</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+        <f t="shared" ref="H57" si="7">((F57-G57)/F57)*100</f>
+        <v>12.409989594172727</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B58" s="9">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="C58" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D58" s="9">
-        <v>6.01</v>
+        <v>4.9841269841269842</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" ref="E58" si="10">((B58-D58)/B58)*100</f>
-        <v>65.058139534883722</v>
+        <f t="shared" ref="E58:E59" si="8">((B58-D58)/B58)*100</f>
+        <v>70.681605975723627</v>
       </c>
       <c r="F58" s="1">
-        <v>47.94</v>
-      </c>
-      <c r="G58" s="21">
-        <v>42.68</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G58" s="20">
+        <v>42.003015873015876</v>
       </c>
       <c r="H58" s="20">
-        <f t="shared" ref="H58" si="11">((F58-G58)/F58)*100</f>
-        <v>10.972048393825611</v>
+        <f t="shared" ref="H58:H59" si="9">((F58-G58)/F58)*100</f>
+        <v>12.584774457823341</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -21299,27 +21557,27 @@
         <v>36</v>
       </c>
       <c r="B59" s="9">
-        <v>17.11</v>
+        <v>17</v>
       </c>
       <c r="C59" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D59" s="9">
-        <v>5.66</v>
+        <v>4.9407407407407407</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" ref="E59:E60" si="12">((B59-D59)/B59)*100</f>
-        <v>66.919929865575682</v>
+        <f t="shared" si="8"/>
+        <v>70.936819172113303</v>
       </c>
       <c r="F59" s="1">
-        <v>48.39</v>
-      </c>
-      <c r="G59" s="21">
-        <v>42.13</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G59" s="20">
+        <v>42.08658333333333</v>
       </c>
       <c r="H59" s="20">
-        <f t="shared" ref="H59:H60" si="13">((F59-G59)/F59)*100</f>
-        <v>12.936557139904933</v>
+        <f t="shared" si="9"/>
+        <v>12.410856746444665</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -21327,27 +21585,27 @@
         <v>36</v>
       </c>
       <c r="B60" s="9">
-        <v>17.125</v>
+        <v>17</v>
       </c>
       <c r="C60" s="11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="9">
-        <v>4.3099999999999996</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="12"/>
-        <v>74.832116788321173</v>
+        <f t="shared" ref="E60" si="10">((B60-D60)/B60)*100</f>
+        <v>76.078431372549019</v>
       </c>
       <c r="F60" s="1">
-        <v>48.13</v>
-      </c>
-      <c r="G60" s="21">
-        <v>33.68</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G60" s="20">
+        <v>39.080750000000002</v>
       </c>
       <c r="H60" s="20">
-        <f t="shared" si="13"/>
-        <v>30.022854768335762</v>
+        <f t="shared" ref="H60" si="11">((F60-G60)/F60)*100</f>
+        <v>18.666493236212258</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -21358,24 +21616,22 @@
         <v>17</v>
       </c>
       <c r="C61" s="11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D61" s="9">
-        <v>4.37</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" ref="E61" si="14">((B61-D61)/B61)*100</f>
-        <v>74.294117647058826</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>48.92</v>
-      </c>
-      <c r="G61" s="21">
-        <v>39.1</v>
-      </c>
-      <c r="H61" s="20">
-        <f t="shared" ref="H61" si="15">((F61-G61)/F61)*100</f>
-        <v>20.07358953393295</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -21383,27 +21639,25 @@
         <v>36</v>
       </c>
       <c r="B62" s="9">
-        <v>17.25</v>
+        <v>17</v>
       </c>
       <c r="C62" s="11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" ref="E62" si="16">((B62-D62)/B62)*100</f>
-        <v>76.811594202898547</v>
+        <v>0</v>
       </c>
       <c r="F62" s="1">
-        <v>47.54</v>
-      </c>
-      <c r="G62" s="21">
-        <v>32.25</v>
-      </c>
-      <c r="H62" s="20">
-        <f t="shared" ref="H62" si="17">((F62-G62)/F62)*100</f>
-        <v>32.162389566680687</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -21414,24 +21668,22 @@
         <v>17</v>
       </c>
       <c r="C63" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D63" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" ref="E63" si="18">((B63-D63)/B63)*100</f>
-        <v>82.35294117647058</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>50.47</v>
-      </c>
-      <c r="G63" s="21">
-        <v>31.66</v>
-      </c>
-      <c r="H63" s="20">
-        <f t="shared" ref="H63" si="19">((F63-G63)/F63)*100</f>
-        <v>37.269665147612443</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -21442,80 +21694,80 @@
         <v>17</v>
       </c>
       <c r="C64" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D64" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" ref="E64" si="20">((B64-D64)/B64)*100</f>
-        <v>82.35294117647058</v>
+        <f t="shared" ref="E64" si="12">((B64-D64)/B64)*100</f>
+        <v>88.235294117647058</v>
       </c>
       <c r="F64" s="1">
-        <v>50.47</v>
-      </c>
-      <c r="G64" s="21">
-        <v>31.66</v>
+        <v>48.04999999999999</v>
+      </c>
+      <c r="G64" s="20">
+        <v>25.103333333333335</v>
       </c>
       <c r="H64" s="20">
-        <f t="shared" ref="H64" si="21">((F64-G64)/F64)*100</f>
-        <v>37.269665147612443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>36</v>
+        <f t="shared" ref="H64" si="13">((F64-G64)/F64)*100</f>
+        <v>47.755809920221978</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>34</v>
       </c>
       <c r="B65" s="9">
         <v>17</v>
       </c>
-      <c r="C65" s="11">
-        <v>50</v>
+      <c r="C65">
+        <v>5</v>
       </c>
       <c r="D65" s="9">
-        <v>2.12</v>
+        <v>7.25</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" ref="E65" si="22">((B65-D65)/B65)*100</f>
-        <v>87.529411764705884</v>
+        <f>((B65-D65)/B65)*100</f>
+        <v>57.352941176470587</v>
       </c>
       <c r="F65" s="1">
-        <v>48.63</v>
-      </c>
-      <c r="G65" s="21">
-        <v>26.24</v>
+        <v>92.64</v>
+      </c>
+      <c r="G65" s="20">
+        <v>91.975000000000009</v>
       </c>
       <c r="H65" s="20">
-        <f t="shared" ref="H65" si="23">((F65-G65)/F65)*100</f>
-        <v>46.041538145177881</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+        <f>((F65-G65)/F65)*100</f>
+        <v>0.71783246977546633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B66" s="9">
         <v>17</v>
       </c>
-      <c r="C66">
-        <v>5</v>
+      <c r="C66" s="6">
+        <v>10</v>
       </c>
       <c r="D66" s="9">
-        <v>7.25</v>
+        <v>9.875</v>
       </c>
       <c r="E66" s="2">
-        <f>((B66-D66)/B66)*100</f>
-        <v>57.352941176470587</v>
+        <f t="shared" ref="E66:E67" si="14">((B66-D66)/B66)*100</f>
+        <v>41.911764705882355</v>
       </c>
       <c r="F66" s="1">
         <v>92.64</v>
       </c>
-      <c r="G66" s="21">
-        <v>91.97</v>
+      <c r="G66" s="20">
+        <v>92.027500000000003</v>
       </c>
       <c r="H66" s="20">
-        <f>((F66-G66)/F66)*100</f>
-        <v>0.72322970639033002</v>
+        <f t="shared" ref="H66:H67" si="15">((F66-G66)/F66)*100</f>
+        <v>0.66116148531951335</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -21523,55 +21775,55 @@
         <v>34</v>
       </c>
       <c r="B67" s="9">
-        <v>16.14</v>
+        <v>17</v>
       </c>
       <c r="C67" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D67" s="9">
-        <v>9</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E68" si="24">((B67-D67)/B67)*100</f>
-        <v>44.237918215613384</v>
+        <f t="shared" si="14"/>
+        <v>45.098039215686271</v>
       </c>
       <c r="F67" s="1">
-        <v>91.38</v>
-      </c>
-      <c r="G67" s="21">
-        <v>90.14</v>
+        <v>92.64</v>
+      </c>
+      <c r="G67" s="20">
+        <v>91.975000000000009</v>
       </c>
       <c r="H67" s="20">
-        <f t="shared" ref="H67:H68" si="25">((F67-G67)/F67)*100</f>
-        <v>1.3569708907857243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+        <f t="shared" si="15"/>
+        <v>0.71783246977546633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B68" s="9">
-        <v>16.14</v>
-      </c>
-      <c r="C68" s="6">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C68" s="8">
+        <v>20</v>
       </c>
       <c r="D68" s="9">
-        <v>8.19</v>
+        <v>10.75</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="24"/>
-        <v>49.256505576208184</v>
+        <f>((B68-D68)/B68)*100</f>
+        <v>36.764705882352942</v>
       </c>
       <c r="F68" s="1">
-        <v>91.37</v>
-      </c>
-      <c r="G68" s="21">
-        <v>89.67</v>
+        <v>92.64</v>
+      </c>
+      <c r="G68" s="20">
+        <v>91.982500000000002</v>
       </c>
       <c r="H68" s="20">
-        <f t="shared" si="25"/>
-        <v>1.860566925686771</v>
+        <f>((F68-G68)/F68)*100</f>
+        <v>0.70973661485319395</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -21579,27 +21831,27 @@
         <v>34</v>
       </c>
       <c r="B69" s="9">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="C69" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D69" s="9">
-        <v>8.82</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2">
-        <f>((B69-D69)/B69)*100</f>
-        <v>44.177215189873422</v>
+        <f t="shared" ref="E69:E70" si="16">((B69-D69)/B69)*100</f>
+        <v>35.294117647058826</v>
       </c>
       <c r="F69" s="1">
-        <v>90.87</v>
-      </c>
-      <c r="G69" s="21">
-        <v>87.42</v>
+        <v>92.64</v>
+      </c>
+      <c r="G69" s="20">
+        <v>91.975000000000009</v>
       </c>
       <c r="H69" s="20">
-        <f>((F69-G69)/F69)*100</f>
-        <v>3.7966325519973614</v>
+        <f t="shared" ref="H69:H70" si="17">((F69-G69)/F69)*100</f>
+        <v>0.71783246977546633</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -21607,27 +21859,27 @@
         <v>34</v>
       </c>
       <c r="B70" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="9">
-        <v>8.66</v>
+        <v>8.625</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" ref="E70:E71" si="26">((B70-D70)/B70)*100</f>
-        <v>45.875</v>
+        <f t="shared" si="16"/>
+        <v>49.264705882352942</v>
       </c>
       <c r="F70" s="1">
-        <v>91.15</v>
-      </c>
-      <c r="G70" s="21">
-        <v>88.17</v>
+        <v>92.64</v>
+      </c>
+      <c r="G70" s="20">
+        <v>91.466666666666683</v>
       </c>
       <c r="H70" s="20">
-        <f t="shared" ref="H70:H71" si="27">((F70-G70)/F70)*100</f>
-        <v>3.2693362589138824</v>
+        <f t="shared" si="17"/>
+        <v>1.2665515256188662</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -21635,27 +21887,27 @@
         <v>34</v>
       </c>
       <c r="B71" s="9">
-        <v>16.14</v>
+        <v>17</v>
       </c>
       <c r="C71" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9">
-        <v>7.35</v>
+        <v>8.7083333333333339</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="26"/>
-        <v>54.460966542750931</v>
+        <f>((B71-D71)/B71)*100</f>
+        <v>48.774509803921568</v>
       </c>
       <c r="F71" s="1">
-        <v>91.34</v>
-      </c>
-      <c r="G71" s="21">
-        <v>88.44</v>
+        <v>92.64</v>
+      </c>
+      <c r="G71" s="20">
+        <v>91.97999999999999</v>
       </c>
       <c r="H71" s="20">
-        <f t="shared" si="27"/>
-        <v>3.1749507335231066</v>
+        <f>((F71-G71)/F71)*100</f>
+        <v>0.7124352331606334</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -21663,27 +21915,27 @@
         <v>34</v>
       </c>
       <c r="B72" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C72" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D72" s="9">
-        <v>7.69</v>
+        <v>7.25</v>
       </c>
       <c r="E72" s="2">
-        <f>((B72-D72)/B72)*100</f>
-        <v>51.937499999999993</v>
+        <f t="shared" ref="E72:E73" si="18">((B72-D72)/B72)*100</f>
+        <v>57.352941176470587</v>
       </c>
       <c r="F72" s="1">
-        <v>91.11</v>
-      </c>
-      <c r="G72" s="21">
-        <v>88.17</v>
+        <v>92.64</v>
+      </c>
+      <c r="G72" s="20">
+        <v>91.975000000000009</v>
       </c>
       <c r="H72" s="20">
-        <f>((F72-G72)/F72)*100</f>
-        <v>3.2268686203490264</v>
+        <f t="shared" ref="H72:H73" si="19">((F72-G72)/F72)*100</f>
+        <v>0.71783246977546633</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -21691,27 +21943,27 @@
         <v>34</v>
       </c>
       <c r="B73" s="9">
-        <v>16.25</v>
+        <v>17</v>
       </c>
       <c r="C73" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D73" s="9">
-        <v>7.91</v>
+        <v>9.125</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" ref="E73:E74" si="28">((B73-D73)/B73)*100</f>
-        <v>51.323076923076925</v>
+        <f t="shared" si="18"/>
+        <v>46.32352941176471</v>
       </c>
       <c r="F73" s="1">
-        <v>91.52</v>
-      </c>
-      <c r="G73" s="21">
-        <v>89.14</v>
+        <v>92.64</v>
+      </c>
+      <c r="G73" s="20">
+        <v>91.76</v>
       </c>
       <c r="H73" s="20">
-        <f t="shared" ref="H73:H74" si="29">((F73-G73)/F73)*100</f>
-        <v>2.6005244755244705</v>
+        <f t="shared" si="19"/>
+        <v>0.94991364421415747</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -21719,56 +21971,35 @@
         <v>34</v>
       </c>
       <c r="B74" s="9">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="C74" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D74" s="9">
-        <v>7.75</v>
+        <v>8.1107142857142858</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="28"/>
-        <v>50</v>
+        <f t="shared" ref="E74" si="20">((B74-D74)/B74)*100</f>
+        <v>52.289915966386559</v>
       </c>
       <c r="F74" s="1">
-        <v>90.4</v>
-      </c>
-      <c r="G74" s="21">
-        <v>86.26</v>
+        <v>92.64</v>
+      </c>
+      <c r="G74" s="20">
+        <v>91.642499999999998</v>
       </c>
       <c r="H74" s="20">
-        <f t="shared" si="29"/>
-        <v>4.5796460176991154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="9">
-        <v>15.8</v>
-      </c>
-      <c r="C75" s="8">
-        <v>50</v>
-      </c>
-      <c r="D75" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" ref="E75" si="30">((B75-D75)/B75)*100</f>
-        <v>52.531645569620252</v>
-      </c>
-      <c r="F75" s="1">
-        <v>90.82</v>
-      </c>
-      <c r="G75" s="21">
-        <v>87.4</v>
-      </c>
-      <c r="H75" s="20">
-        <f t="shared" ref="H75" si="31">((F75-G75)/F75)*100</f>
-        <v>3.7656903765690237</v>
-      </c>
+        <f t="shared" ref="H74" si="21">((F74-G74)/F74)*100</f>
+        <v>1.0767487046632149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="1"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
@@ -21777,14 +22008,14 @@
       <c r="F76" s="1"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="2"/>
@@ -21798,14 +22029,14 @@
       <c r="F79" s="1"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="2"/>
@@ -21819,19 +22050,12 @@
       <c r="F82" s="1"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="1"/>
-      <c r="H84" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
